--- a/converter/city_data/Kaohsiung/高雄市.xlsx
+++ b/converter/city_data/Kaohsiung/高雄市.xlsx
@@ -421,7 +421,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H270"/>
+  <dimension ref="A1:H272"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3305,21 +3305,21 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>非線圈數位-雷射</t>
+          <t>雷達數位</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>仁武區仁雄路與澄仁路口</t>
+          <t>仁武區澄觀路一段(新庄路以西150公尺處)</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>西向東</t>
+          <t>北向南</t>
         </is>
       </c>
       <c r="E85" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="F85" t="inlineStr">
         <is>
@@ -3328,7 +3328,7 @@
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>闖紅燈兼超速</t>
+          <t>超速</t>
         </is>
       </c>
       <c r="H85" t="inlineStr"/>
@@ -3339,21 +3339,21 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>非線圈數位-雷射(雷達)</t>
+          <t>非線圈數位-雷射</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>仁武區鳳仁路與成功路口</t>
+          <t>仁武區仁雄路與澄仁路口</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>南向北</t>
+          <t>西向東</t>
         </is>
       </c>
       <c r="E86" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="F86" t="inlineStr">
         <is>
@@ -3362,7 +3362,7 @@
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>闖紅燈</t>
+          <t>闖紅燈兼超速</t>
         </is>
       </c>
       <c r="H86" t="inlineStr"/>
@@ -3378,12 +3378,12 @@
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>仁武區水管路與澄觀路口</t>
+          <t>仁武區鳳仁路與成功路口</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>東向西</t>
+          <t>南向北</t>
         </is>
       </c>
       <c r="E87" t="n">
@@ -3396,7 +3396,7 @@
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>闖紅燈兼超速</t>
+          <t>闖紅燈</t>
         </is>
       </c>
       <c r="H87" t="inlineStr"/>
@@ -3407,17 +3407,17 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>雷達數位</t>
+          <t>非線圈數位-雷射(雷達)</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>仁武區鳳仁路183線2.45公里</t>
+          <t>仁武區水管路與澄觀路口</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>北向南</t>
+          <t>東向西</t>
         </is>
       </c>
       <c r="E88" t="n">
@@ -3430,7 +3430,7 @@
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>超速</t>
+          <t>闖紅燈兼超速</t>
         </is>
       </c>
       <c r="H88" t="inlineStr"/>
@@ -3441,23 +3441,21 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>非線圈數位-雷射(雷達)</t>
+          <t>雷達數位</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>仁武區高楠公路與八德二路口</t>
+          <t>仁武區鳳仁路183線2.45公里</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>南向北</t>
-        </is>
-      </c>
-      <c r="E89" t="inlineStr">
-        <is>
-          <t>60/40</t>
-        </is>
+          <t>北向南</t>
+        </is>
+      </c>
+      <c r="E89" t="n">
+        <v>60</v>
       </c>
       <c r="F89" t="inlineStr">
         <is>
@@ -3466,7 +3464,7 @@
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>闖紅燈</t>
+          <t>超速</t>
         </is>
       </c>
       <c r="H89" t="inlineStr"/>
@@ -3477,12 +3475,12 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>非線圈數位-雷射</t>
+          <t>非線圈數位-雷射(雷達)</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>仁武區澄觀路與仁林路口</t>
+          <t>仁武區高楠公路與八德二路口</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
@@ -3490,8 +3488,10 @@
           <t>南向北</t>
         </is>
       </c>
-      <c r="E90" t="n">
-        <v>60</v>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>60/40</t>
+        </is>
       </c>
       <c r="F90" t="inlineStr">
         <is>
@@ -3516,12 +3516,12 @@
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>仁武區澄觀路與鳳仁路口</t>
+          <t>仁武區澄觀路與仁林路口</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>東向西</t>
+          <t>南向北</t>
         </is>
       </c>
       <c r="E91" t="n">
@@ -3550,18 +3550,16 @@
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>仁武區鳳仁路與竹門巷口</t>
+          <t>仁武區澄觀路與鳳仁路口</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>北向南</t>
-        </is>
-      </c>
-      <c r="E92" t="inlineStr">
-        <is>
-          <t>60/40</t>
-        </is>
+          <t>東向西</t>
+        </is>
+      </c>
+      <c r="E92" t="n">
+        <v>60</v>
       </c>
       <c r="F92" t="inlineStr">
         <is>
@@ -3586,16 +3584,18 @@
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>仁武區水管路與鳳仁路</t>
+          <t>仁武區鳳仁路與竹門巷口</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>西向東</t>
-        </is>
-      </c>
-      <c r="E93" t="n">
-        <v>40</v>
+          <t>北向南</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>60/40</t>
+        </is>
       </c>
       <c r="F93" t="inlineStr">
         <is>
@@ -3620,12 +3620,12 @@
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>仁武區高楠公路23號前</t>
+          <t>仁武區水管路與鳳仁路</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>北向南</t>
+          <t>西向東</t>
         </is>
       </c>
       <c r="E94" t="n">
@@ -3649,12 +3649,12 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>雷達數位</t>
+          <t>非線圈數位-雷射</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>內門區旗文路(台三線401.88K)</t>
+          <t>仁武區高楠公路23號前</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
@@ -3663,16 +3663,16 @@
         </is>
       </c>
       <c r="E95" t="n">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>內門</t>
+          <t>仁武</t>
         </is>
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>超速</t>
+          <t>闖紅燈</t>
         </is>
       </c>
       <c r="H95" t="inlineStr"/>
@@ -3688,20 +3688,20 @@
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>六龜區旗六公路新威國小前</t>
+          <t>內門區旗文路(台三線401.88K)</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>西向東</t>
+          <t>北向南</t>
         </is>
       </c>
       <c r="E96" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>六龜</t>
+          <t>內門</t>
         </is>
       </c>
       <c r="G96" t="inlineStr">
@@ -3717,17 +3717,17 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>非線圈數位-雷射(雷達)</t>
+          <t>雷達數位</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>六龜區台28線茂林國家風景區管理處前路口</t>
+          <t>六龜區旗六公路新威國小前</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>北向南</t>
+          <t>西向東</t>
         </is>
       </c>
       <c r="E97" t="n">
@@ -3740,7 +3740,7 @@
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>闖紅燈兼超速</t>
+          <t>超速</t>
         </is>
       </c>
       <c r="H97" t="inlineStr"/>
@@ -3751,17 +3751,17 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>雷達數位</t>
+          <t>非線圈數位-雷射(雷達)</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>六龜區三民路37號旁(台28線45.7K)</t>
+          <t>六龜區台28線茂林國家風景區管理處前路口</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>東向西</t>
+          <t>北向南</t>
         </is>
       </c>
       <c r="E98" t="n">
@@ -3774,7 +3774,7 @@
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>超速</t>
+          <t>闖紅燈兼超速</t>
         </is>
       </c>
       <c r="H98" t="inlineStr"/>
@@ -3785,17 +3785,17 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>線圈數位</t>
+          <t>雷達數位</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>左營區博愛三路與崇德路口</t>
+          <t>六龜區三民路37號旁(台28線45.7K)</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>南向北</t>
+          <t>東向西</t>
         </is>
       </c>
       <c r="E99" t="n">
@@ -3803,12 +3803,12 @@
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>左營</t>
+          <t>六龜</t>
         </is>
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>闖紅燈</t>
+          <t>超速</t>
         </is>
       </c>
       <c r="H99" t="inlineStr"/>
@@ -3824,12 +3824,12 @@
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>左營區新庄仔路與自由二路口</t>
+          <t>左營區博愛三路與崇德路口</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>西向東</t>
+          <t>南向北</t>
         </is>
       </c>
       <c r="E100" t="n">
@@ -3858,16 +3858,16 @@
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>華夏路與新庄仔路口</t>
+          <t>左營區新庄仔路與自由二路口</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>南向北</t>
+          <t>西向東</t>
         </is>
       </c>
       <c r="E101" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="F101" t="inlineStr">
         <is>
@@ -3892,12 +3892,12 @@
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>左營區博愛三路與文自路口</t>
+          <t>華夏路與新庄仔路口</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>北向南</t>
+          <t>南向北</t>
         </is>
       </c>
       <c r="E102" t="n">
@@ -3921,21 +3921,21 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>非線圈數位-雷射</t>
+          <t>線圈數位</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>左營區大中二路與華夏路口</t>
+          <t>左營區博愛三路與文自路口</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>西向東</t>
+          <t>北向南</t>
         </is>
       </c>
       <c r="E103" t="n">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="F103" t="inlineStr">
         <is>
@@ -3944,7 +3944,7 @@
       </c>
       <c r="G103" t="inlineStr">
         <is>
-          <t>闖紅燈兼路口科技執法監測</t>
+          <t>闖紅燈</t>
         </is>
       </c>
       <c r="H103" t="inlineStr"/>
@@ -3955,21 +3955,21 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>線圈數位</t>
+          <t>非線圈數位-雷射</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>左營區華夏路337巷口</t>
+          <t>左營區大中二路與華夏路口</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>南向北</t>
+          <t>西向東</t>
         </is>
       </c>
       <c r="E104" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="F104" t="inlineStr">
         <is>
@@ -3978,7 +3978,7 @@
       </c>
       <c r="G104" t="inlineStr">
         <is>
-          <t>闖紅燈</t>
+          <t>闖紅燈兼路口科技執法監測</t>
         </is>
       </c>
       <c r="H104" t="inlineStr"/>
@@ -3989,21 +3989,21 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>雷達數位</t>
+          <t>線圈數位</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>左營區大中高架道路華夏匝道口</t>
+          <t>左營區華夏路337巷口</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>西向東</t>
+          <t>南向北</t>
         </is>
       </c>
       <c r="E105" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="F105" t="inlineStr">
         <is>
@@ -4012,7 +4012,7 @@
       </c>
       <c r="G105" t="inlineStr">
         <is>
-          <t>超速</t>
+          <t>闖紅燈</t>
         </is>
       </c>
       <c r="H105" t="inlineStr"/>
@@ -4028,12 +4028,12 @@
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>左營區大中高架道路文川匝道口</t>
+          <t>左營區大中高架道路華夏匝道口</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>東向西</t>
+          <t>西向東</t>
         </is>
       </c>
       <c r="E106" t="n">
@@ -4057,21 +4057,21 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>非線圈數位-雷射(雷達)</t>
+          <t>雷達數位</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>左營區高鐵路與曾子路口</t>
+          <t>左營區大中高架道路文川匝道口</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>北向南西</t>
+          <t>東向西</t>
         </is>
       </c>
       <c r="E107" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="F107" t="inlineStr">
         <is>
@@ -4080,7 +4080,7 @@
       </c>
       <c r="G107" t="inlineStr">
         <is>
-          <t>闖紅燈</t>
+          <t>超速</t>
         </is>
       </c>
       <c r="H107" t="inlineStr"/>
@@ -4096,12 +4096,12 @@
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>左營區翠華路與明潭路口</t>
+          <t>左營區高鐵路與曾子路口</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>北向南</t>
+          <t>北向南西</t>
         </is>
       </c>
       <c r="E108" t="n">
@@ -4125,12 +4125,12 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>非線圈數位-雷射</t>
+          <t>非線圈數位-雷射(雷達)</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>左營區博愛二路與裕誠路口</t>
+          <t>左營區翠華路與明潭路口</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
@@ -4164,7 +4164,7 @@
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>左營區高鐵路與大中二路口</t>
+          <t>左營區博愛二路與裕誠路口</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
@@ -4198,18 +4198,16 @@
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>左營區民族一路與大中一路</t>
+          <t>左營區高鐵路與大中二路口</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>南向北</t>
-        </is>
-      </c>
-      <c r="E111" t="inlineStr">
-        <is>
-          <t>60/40</t>
-        </is>
+          <t>北向南</t>
+        </is>
+      </c>
+      <c r="E111" t="n">
+        <v>50</v>
       </c>
       <c r="F111" t="inlineStr">
         <is>
@@ -4234,7 +4232,7 @@
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>左營區博愛二路與新庄仔路口/新莊一路</t>
+          <t>左營區民族一路與大中一路</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
@@ -4244,7 +4242,7 @@
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>50/40</t>
+          <t>60/40</t>
         </is>
       </c>
       <c r="F112" t="inlineStr">
@@ -4254,7 +4252,7 @@
       </c>
       <c r="G112" t="inlineStr">
         <is>
-          <t>闖紅燈兼路口科技執法監測</t>
+          <t>闖紅燈</t>
         </is>
       </c>
       <c r="H112" t="inlineStr"/>
@@ -4265,21 +4263,23 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>線圈數位</t>
+          <t>非線圈數位-雷射</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>左營區介壽路與先鋒路口</t>
+          <t>左營區博愛二路與新庄仔路口/新莊一路</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>西向東</t>
-        </is>
-      </c>
-      <c r="E113" t="n">
-        <v>50</v>
+          <t>南向北</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>50/40</t>
+        </is>
       </c>
       <c r="F113" t="inlineStr">
         <is>
@@ -4288,7 +4288,7 @@
       </c>
       <c r="G113" t="inlineStr">
         <is>
-          <t>闖紅燈</t>
+          <t>闖紅燈兼路口科技執法監測</t>
         </is>
       </c>
       <c r="H113" t="inlineStr"/>
@@ -4299,17 +4299,17 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>非線圈數位-雷射(雷達)</t>
+          <t>線圈數位</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>左營區翠華路與站前南路</t>
+          <t>左營區介壽路與先鋒路口</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>南向北</t>
+          <t>西向東</t>
         </is>
       </c>
       <c r="E114" t="n">
@@ -4333,23 +4333,21 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>非線圈數位-雷射</t>
+          <t>非線圈數位-雷射(雷達)</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>左營區翠華路與華榮路口</t>
+          <t>左營區翠華路與站前南路</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>北向南</t>
-        </is>
-      </c>
-      <c r="E115" t="inlineStr">
-        <is>
-          <t>50/40</t>
-        </is>
+          <t>南向北</t>
+        </is>
+      </c>
+      <c r="E115" t="n">
+        <v>50</v>
       </c>
       <c r="F115" t="inlineStr">
         <is>
@@ -4374,16 +4372,18 @@
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>左營區翠華路與崇德路口</t>
+          <t>左營區翠華路與華榮路口</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>南向北</t>
-        </is>
-      </c>
-      <c r="E116" t="n">
-        <v>50</v>
+          <t>北向南</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>50/40</t>
+        </is>
       </c>
       <c r="F116" t="inlineStr">
         <is>
@@ -4408,12 +4408,12 @@
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>左營區大中二路/文自路</t>
+          <t>左營區翠華路與崇德路口</t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>西向東</t>
+          <t>南向北</t>
         </is>
       </c>
       <c r="E117" t="n">
@@ -4442,7 +4442,7 @@
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>左營區新莊一路/新榮街口</t>
+          <t>左營區大中二路/文自路</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
@@ -4471,17 +4471,17 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>非線圈數位-雷射(雷達)</t>
+          <t>非線圈數位-雷射</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>左營區軍校路國軍高雄總醫院左營分院前</t>
+          <t>左營區新莊一路/新榮街口</t>
         </is>
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>北向南</t>
+          <t>西向東</t>
         </is>
       </c>
       <c r="E119" t="n">
@@ -4494,7 +4494,7 @@
       </c>
       <c r="G119" t="inlineStr">
         <is>
-          <t>闖紅燈兼超速</t>
+          <t>闖紅燈</t>
         </is>
       </c>
       <c r="H119" t="inlineStr"/>
@@ -4505,12 +4505,12 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>非線圈數位-雷射</t>
+          <t>非線圈數位-雷射(雷達)</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>左營區翠華路/勝利路</t>
+          <t>左營區軍校路國軍高雄總醫院左營分院前</t>
         </is>
       </c>
       <c r="D120" t="inlineStr">
@@ -4518,10 +4518,8 @@
           <t>北向南</t>
         </is>
       </c>
-      <c r="E120" t="inlineStr">
-        <is>
-          <t>50/40</t>
-        </is>
+      <c r="E120" t="n">
+        <v>50</v>
       </c>
       <c r="F120" t="inlineStr">
         <is>
@@ -4530,7 +4528,7 @@
       </c>
       <c r="G120" t="inlineStr">
         <is>
-          <t>闖紅燈兼路口科技執法監測</t>
+          <t>闖紅燈兼超速</t>
         </is>
       </c>
       <c r="H120" t="inlineStr"/>
@@ -4541,21 +4539,23 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>雷達數位</t>
+          <t>非線圈數位-雷射</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>左營區左營高架橋(中華陸橋)往北下橋處</t>
+          <t>左營區翠華路/勝利路</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>南向北</t>
-        </is>
-      </c>
-      <c r="E121" t="n">
-        <v>40</v>
+          <t>北向南</t>
+        </is>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>50/40</t>
+        </is>
       </c>
       <c r="F121" t="inlineStr">
         <is>
@@ -4564,14 +4564,14 @@
       </c>
       <c r="G121" t="inlineStr">
         <is>
-          <t>超速</t>
+          <t>闖紅燈兼路口科技執法監測</t>
         </is>
       </c>
       <c r="H121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" t="n">
-        <v>121</v>
+        <v>1210</v>
       </c>
       <c r="B122" t="inlineStr">
         <is>
@@ -4580,7 +4580,7 @@
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>左營區先鋒路293號對面</t>
+          <t>左營區左營高架橋(中華陸橋)往北下橋處</t>
         </is>
       </c>
       <c r="D122" t="inlineStr">
@@ -4614,20 +4614,20 @@
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>永安區台17線(保安路)201.2K處</t>
+          <t>左營區先鋒路293號對面</t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>南北向</t>
+          <t>南向北</t>
         </is>
       </c>
       <c r="E123" t="n">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="F123" t="inlineStr">
         <is>
-          <t>永安</t>
+          <t>左營</t>
         </is>
       </c>
       <c r="G123" t="inlineStr">
@@ -4648,20 +4648,20 @@
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>田寮區台28線鹿埔路19號前</t>
+          <t>永安區台17線(保安路)201.2K處</t>
         </is>
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>西向東</t>
+          <t>南北向</t>
         </is>
       </c>
       <c r="E124" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="F124" t="inlineStr">
         <is>
-          <t>田寮</t>
+          <t>永安</t>
         </is>
       </c>
       <c r="G124" t="inlineStr">
@@ -4682,12 +4682,12 @@
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>田寮區古亭路(台28線)18號以東67.5公尺處(往阿蓮方向)</t>
+          <t>田寮區台28線鹿埔路19號前</t>
         </is>
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>東向西</t>
+          <t>西向東</t>
         </is>
       </c>
       <c r="E125" t="n">
@@ -4716,12 +4716,12 @@
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>杉林區市道181線(杉美路1段)2K+675</t>
+          <t>田寮區古亭路(台28線)18號以東67.5公尺處(往阿蓮方向)</t>
         </is>
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>北向南</t>
+          <t>東向西</t>
         </is>
       </c>
       <c r="E126" t="n">
@@ -4729,7 +4729,7 @@
       </c>
       <c r="F126" t="inlineStr">
         <is>
-          <t>杉林</t>
+          <t>田寮</t>
         </is>
       </c>
       <c r="G126" t="inlineStr">
@@ -4750,16 +4750,16 @@
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>杉林區台29線53K+207</t>
+          <t>杉林區市道181線(杉美路1段)2K+675</t>
         </is>
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>南向北</t>
+          <t>北向南</t>
         </is>
       </c>
       <c r="E127" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="F127" t="inlineStr">
         <is>
@@ -4779,17 +4779,17 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>線圈數位</t>
+          <t>雷達數位</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>岡山區嘉新東路與聖森路口</t>
+          <t>杉林區台29線53K+207</t>
         </is>
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>西向東</t>
+          <t>南向北</t>
         </is>
       </c>
       <c r="E128" t="n">
@@ -4797,12 +4797,12 @@
       </c>
       <c r="F128" t="inlineStr">
         <is>
-          <t>岡山</t>
+          <t>杉林</t>
         </is>
       </c>
       <c r="G128" t="inlineStr">
         <is>
-          <t>闖紅燈</t>
+          <t>超速</t>
         </is>
       </c>
       <c r="H128" t="inlineStr"/>
@@ -4813,17 +4813,17 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>非線圈數位-雷射</t>
+          <t>線圈數位</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>岡山區介壽東路與和平路口</t>
+          <t>岡山區嘉新東路與聖森路口</t>
         </is>
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>東向西</t>
+          <t>西向東</t>
         </is>
       </c>
       <c r="E129" t="n">
@@ -4836,7 +4836,7 @@
       </c>
       <c r="G129" t="inlineStr">
         <is>
-          <t>闖紅燈兼超速</t>
+          <t>闖紅燈</t>
         </is>
       </c>
       <c r="H129" t="inlineStr"/>
@@ -4847,21 +4847,21 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>雷達數位</t>
+          <t>非線圈數位-雷射</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>岡山區嘉峰路高鐵橋下</t>
+          <t>岡山區介壽東路與和平路口</t>
         </is>
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>北向南</t>
+          <t>東向西</t>
         </is>
       </c>
       <c r="E130" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="F130" t="inlineStr">
         <is>
@@ -4870,7 +4870,7 @@
       </c>
       <c r="G130" t="inlineStr">
         <is>
-          <t>超速</t>
+          <t>闖紅燈兼超速</t>
         </is>
       </c>
       <c r="H130" t="inlineStr"/>
@@ -4881,17 +4881,17 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>非線圈數位-雷射</t>
+          <t>雷達數位</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>岡山區大德一路與中山北路</t>
+          <t>岡山區嘉峰路高鐵橋下</t>
         </is>
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>西向東</t>
+          <t>北向南</t>
         </is>
       </c>
       <c r="E131" t="n">
@@ -4904,14 +4904,14 @@
       </c>
       <c r="G131" t="inlineStr">
         <is>
-          <t>闖紅燈</t>
+          <t>超速</t>
         </is>
       </c>
       <c r="H131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" t="n">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B132" t="inlineStr">
         <is>
@@ -4920,18 +4920,16 @@
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>岡山區介壽東路與岡燕路</t>
+          <t>岡山區大德一路與中山北路</t>
         </is>
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>東向西</t>
-        </is>
-      </c>
-      <c r="E132" t="inlineStr">
-        <is>
-          <t>60/40</t>
-        </is>
+          <t>西向東</t>
+        </is>
+      </c>
+      <c r="E132" t="n">
+        <v>50</v>
       </c>
       <c r="F132" t="inlineStr">
         <is>
@@ -4956,16 +4954,18 @@
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>岡山區聖森路/岡燕路口</t>
+          <t>岡山區介壽東路與岡燕路</t>
         </is>
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>南向北</t>
-        </is>
-      </c>
-      <c r="E133" t="n">
-        <v>50</v>
+          <t>東向西</t>
+        </is>
+      </c>
+      <c r="E133" t="inlineStr">
+        <is>
+          <t>60/40</t>
+        </is>
       </c>
       <c r="F133" t="inlineStr">
         <is>
@@ -4985,17 +4985,17 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>雷達數位</t>
+          <t>非線圈數位-雷射</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>岡山區國軒路/鵬程東二路口</t>
+          <t>岡山區聖森路/岡燕路口</t>
         </is>
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>西向東</t>
+          <t>南向北</t>
         </is>
       </c>
       <c r="E134" t="n">
@@ -5008,7 +5008,7 @@
       </c>
       <c r="G134" t="inlineStr">
         <is>
-          <t>超速</t>
+          <t>闖紅燈</t>
         </is>
       </c>
       <c r="H134" t="inlineStr"/>
@@ -5024,12 +5024,12 @@
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>岡山區聖森路與聖森路160巷口</t>
+          <t>岡山區國軒路/鵬程東二路口</t>
         </is>
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>北向南</t>
+          <t>西向東</t>
         </is>
       </c>
       <c r="E135" t="n">
@@ -5058,12 +5058,12 @@
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>岡山區嘉新東路與新庄路口</t>
+          <t>岡山區聖森路與聖森路160巷口</t>
         </is>
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>東向西</t>
+          <t>北向南</t>
         </is>
       </c>
       <c r="E136" t="n">
@@ -5092,12 +5092,12 @@
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>岡山區大莊路60巷90號對面</t>
+          <t>岡山區嘉新東路與新庄路口</t>
         </is>
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>北向南</t>
+          <t>東向西</t>
         </is>
       </c>
       <c r="E137" t="n">
@@ -5121,30 +5121,30 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>線圈數位</t>
+          <t>雷達數位</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>林園區沿海路二段與林園南路口</t>
+          <t>岡山區大莊路60巷90號對面</t>
         </is>
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>西向東</t>
+          <t>北向南</t>
         </is>
       </c>
       <c r="E138" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="F138" t="inlineStr">
         <is>
-          <t>林園</t>
+          <t>岡山</t>
         </is>
       </c>
       <c r="G138" t="inlineStr">
         <is>
-          <t>闖紅燈</t>
+          <t>超速</t>
         </is>
       </c>
       <c r="H138" t="inlineStr"/>
@@ -5155,17 +5155,17 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>雷達數位</t>
+          <t>線圈數位</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>林園區台25線14.5公里處</t>
+          <t>林園區沿海路二段與林園南路口</t>
         </is>
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>北向南</t>
+          <t>西向東</t>
         </is>
       </c>
       <c r="E139" t="n">
@@ -5178,7 +5178,7 @@
       </c>
       <c r="G139" t="inlineStr">
         <is>
-          <t>超速</t>
+          <t>闖紅燈</t>
         </is>
       </c>
       <c r="H139" t="inlineStr"/>
@@ -5189,21 +5189,21 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>非線圈數位-雷射(雷達)</t>
+          <t>雷達數位</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>林園區中門路與南星路口(快車道)</t>
+          <t>林園區台25線14.5公里處</t>
         </is>
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>南向北</t>
+          <t>北向南</t>
         </is>
       </c>
       <c r="E140" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="F140" t="inlineStr">
         <is>
@@ -5212,7 +5212,7 @@
       </c>
       <c r="G140" t="inlineStr">
         <is>
-          <t>闖紅燈兼超速</t>
+          <t>超速</t>
         </is>
       </c>
       <c r="H140" t="inlineStr"/>
@@ -5228,7 +5228,7 @@
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>林園區中門路與南星路口(慢車道)</t>
+          <t>林園區中門路與南星路口(快車道)</t>
         </is>
       </c>
       <c r="D141" t="inlineStr">
@@ -5237,7 +5237,7 @@
         </is>
       </c>
       <c r="E141" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="F141" t="inlineStr">
         <is>
@@ -5257,12 +5257,12 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>線圈數位</t>
+          <t>非線圈數位-雷射(雷達)</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>林園區鳳林路三段與潭頭路口</t>
+          <t>林園區中門路與南星路口(慢車道)</t>
         </is>
       </c>
       <c r="D142" t="inlineStr">
@@ -5271,7 +5271,7 @@
         </is>
       </c>
       <c r="E142" t="n">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="F142" t="inlineStr">
         <is>
@@ -5280,7 +5280,7 @@
       </c>
       <c r="G142" t="inlineStr">
         <is>
-          <t>闖紅燈</t>
+          <t>闖紅燈兼超速</t>
         </is>
       </c>
       <c r="H142" t="inlineStr"/>
@@ -5291,17 +5291,17 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>雷達數位</t>
+          <t>線圈數位</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>林園區台29線108.4公里處</t>
+          <t>林園區鳳林路三段與潭頭路口</t>
         </is>
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>北向南</t>
+          <t>南向北</t>
         </is>
       </c>
       <c r="E143" t="n">
@@ -5314,7 +5314,7 @@
       </c>
       <c r="G143" t="inlineStr">
         <is>
-          <t>超速</t>
+          <t>闖紅燈</t>
         </is>
       </c>
       <c r="H143" t="inlineStr"/>
@@ -5330,20 +5330,20 @@
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>阿蓮區復安路與玉庫路口(台19甲線往阿蓮市區)</t>
+          <t>林園區台29線108.4公里處</t>
         </is>
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>南向北</t>
+          <t>北向南</t>
         </is>
       </c>
       <c r="E144" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="F144" t="inlineStr">
         <is>
-          <t>阿蓮</t>
+          <t>林園</t>
         </is>
       </c>
       <c r="G144" t="inlineStr">
@@ -5359,12 +5359,12 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>線圈數位</t>
+          <t>非線圈數位-雷射</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>中華三路與民生二路口</t>
+          <t>林園區鳳林路二段與林園北路口</t>
         </is>
       </c>
       <c r="D145" t="inlineStr">
@@ -5373,11 +5373,11 @@
         </is>
       </c>
       <c r="E145" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="F145" t="inlineStr">
         <is>
-          <t>前金</t>
+          <t>林園</t>
         </is>
       </c>
       <c r="G145" t="inlineStr">
@@ -5393,17 +5393,17 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>線圈數位</t>
+          <t>雷達數位</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>一心一路與和平二路口</t>
+          <t>阿蓮區復安路與玉庫路口(台19甲線往阿蓮市區)</t>
         </is>
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>西向東</t>
+          <t>南向北</t>
         </is>
       </c>
       <c r="E146" t="n">
@@ -5411,12 +5411,12 @@
       </c>
       <c r="F146" t="inlineStr">
         <is>
-          <t>前鎮</t>
+          <t>阿蓮</t>
         </is>
       </c>
       <c r="G146" t="inlineStr">
         <is>
-          <t>闖紅燈</t>
+          <t>超速</t>
         </is>
       </c>
       <c r="H146" t="inlineStr"/>
@@ -5432,12 +5432,12 @@
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>一心一路與光華二路口</t>
+          <t>中華三路與民生二路口</t>
         </is>
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>東向西</t>
+          <t>北向南</t>
         </is>
       </c>
       <c r="E147" t="n">
@@ -5445,7 +5445,7 @@
       </c>
       <c r="F147" t="inlineStr">
         <is>
-          <t>前鎮</t>
+          <t>前金</t>
         </is>
       </c>
       <c r="G147" t="inlineStr">
@@ -5466,12 +5466,12 @@
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>保泰路與瑞隆路口</t>
+          <t>一心一路與和平二路口</t>
         </is>
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>南向北</t>
+          <t>西向東</t>
         </is>
       </c>
       <c r="E148" t="n">
@@ -5500,16 +5500,16 @@
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>中山二路與文橫三路口</t>
+          <t>一心一路與光華二路口</t>
         </is>
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>南向北</t>
+          <t>東向西</t>
         </is>
       </c>
       <c r="E149" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="F149" t="inlineStr">
         <is>
@@ -5534,18 +5534,16 @@
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>中山三路與正勤路口</t>
+          <t>保泰路與瑞隆路口</t>
         </is>
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>北向南</t>
-        </is>
-      </c>
-      <c r="E150" t="inlineStr">
-        <is>
-          <t>60/40</t>
-        </is>
+          <t>南向北</t>
+        </is>
+      </c>
+      <c r="E150" t="n">
+        <v>50</v>
       </c>
       <c r="F150" t="inlineStr">
         <is>
@@ -5565,21 +5563,21 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>非線圈數位-雷射</t>
+          <t>線圈數位</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>凱旋四路與凱旋四路424巷口</t>
+          <t>中山二路與文橫三路口</t>
         </is>
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>西向東</t>
+          <t>南向北</t>
         </is>
       </c>
       <c r="E151" t="n">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="F151" t="inlineStr">
         <is>
@@ -5599,12 +5597,12 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>非線圈數位-雷射</t>
+          <t>線圈數位</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>成功二路、興發路口</t>
+          <t>中山三路與正勤路口</t>
         </is>
       </c>
       <c r="D152" t="inlineStr">
@@ -5612,8 +5610,10 @@
           <t>北向南</t>
         </is>
       </c>
-      <c r="E152" t="n">
-        <v>50</v>
+      <c r="E152" t="inlineStr">
+        <is>
+          <t>60/40</t>
+        </is>
       </c>
       <c r="F152" t="inlineStr">
         <is>
@@ -5638,16 +5638,16 @@
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>中華五路與復興三路口</t>
+          <t>凱旋四路與凱旋四路424巷口</t>
         </is>
       </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t>南向北</t>
+          <t>西向東</t>
         </is>
       </c>
       <c r="E153" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="F153" t="inlineStr">
         <is>
@@ -5656,7 +5656,7 @@
       </c>
       <c r="G153" t="inlineStr">
         <is>
-          <t>闖紅燈兼路口科技執法監測</t>
+          <t>闖紅燈</t>
         </is>
       </c>
       <c r="H153" t="inlineStr"/>
@@ -5672,7 +5672,7 @@
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>中山四路與中平路口</t>
+          <t>成功二路、興發路口</t>
         </is>
       </c>
       <c r="D154" t="inlineStr">
@@ -5681,7 +5681,7 @@
         </is>
       </c>
       <c r="E154" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="F154" t="inlineStr">
         <is>
@@ -5690,7 +5690,7 @@
       </c>
       <c r="G154" t="inlineStr">
         <is>
-          <t>闖紅燈兼路口科技執法監測</t>
+          <t>闖紅燈</t>
         </is>
       </c>
       <c r="H154" t="inlineStr"/>
@@ -5701,12 +5701,12 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>非線圈數位-雷射(雷達)</t>
+          <t>非線圈數位-雷射</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>中山三路與凱旋四路</t>
+          <t>中華五路與復興三路口</t>
         </is>
       </c>
       <c r="D155" t="inlineStr">
@@ -5715,7 +5715,7 @@
         </is>
       </c>
       <c r="E155" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="F155" t="inlineStr">
         <is>
@@ -5724,7 +5724,7 @@
       </c>
       <c r="G155" t="inlineStr">
         <is>
-          <t>闖紅燈兼超速</t>
+          <t>闖紅燈兼路口科技執法監測</t>
         </is>
       </c>
       <c r="H155" t="inlineStr"/>
@@ -5735,12 +5735,12 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>非線圈數位-雷達(雷射)</t>
+          <t>非線圈數位-雷射</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>中山四路與金福路口</t>
+          <t>中山四路與中平路口</t>
         </is>
       </c>
       <c r="D156" t="inlineStr">
@@ -5749,7 +5749,7 @@
         </is>
       </c>
       <c r="E156" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="F156" t="inlineStr">
         <is>
@@ -5758,7 +5758,7 @@
       </c>
       <c r="G156" t="inlineStr">
         <is>
-          <t>闖紅燈</t>
+          <t>闖紅燈兼路口科技執法監測</t>
         </is>
       </c>
       <c r="H156" t="inlineStr"/>
@@ -5769,12 +5769,12 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>非線圈數位-雷射</t>
+          <t>非線圈數位-雷射(雷達)</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>中山四路與中安路口</t>
+          <t>中山三路與凱旋四路</t>
         </is>
       </c>
       <c r="D157" t="inlineStr">
@@ -5783,7 +5783,7 @@
         </is>
       </c>
       <c r="E157" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="F157" t="inlineStr">
         <is>
@@ -5792,7 +5792,7 @@
       </c>
       <c r="G157" t="inlineStr">
         <is>
-          <t>闖紅燈兼路口科技執法監測</t>
+          <t>闖紅燈兼超速</t>
         </is>
       </c>
       <c r="H157" t="inlineStr"/>
@@ -5803,12 +5803,12 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>線圈數位</t>
+          <t>非線圈數位-雷達(雷射)</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>中山四路與鎮海路口</t>
+          <t>中山四路與金福路口</t>
         </is>
       </c>
       <c r="D158" t="inlineStr">
@@ -5817,7 +5817,7 @@
         </is>
       </c>
       <c r="E158" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="F158" t="inlineStr">
         <is>
@@ -5826,7 +5826,7 @@
       </c>
       <c r="G158" t="inlineStr">
         <is>
-          <t>闖紅燈兼路口科技執法監測</t>
+          <t>闖紅燈</t>
         </is>
       </c>
       <c r="H158" t="inlineStr"/>
@@ -5837,17 +5837,17 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>線圈數位</t>
+          <t>非線圈數位-雷射</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>三多二路與桂林街口</t>
+          <t>中山四路與中安路口</t>
         </is>
       </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t>西向東</t>
+          <t>南向北</t>
         </is>
       </c>
       <c r="E159" t="n">
@@ -5860,7 +5860,7 @@
       </c>
       <c r="G159" t="inlineStr">
         <is>
-          <t>闖紅燈</t>
+          <t>闖紅燈兼路口科技執法監測</t>
         </is>
       </c>
       <c r="H159" t="inlineStr"/>
@@ -5871,21 +5871,21 @@
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>非線圈數位-雷達(雷射)</t>
+          <t>線圈數位</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>凱旋四路與籬仔內路口</t>
+          <t>中山四路與鎮海路口</t>
         </is>
       </c>
       <c r="D160" t="inlineStr">
         <is>
-          <t>南向北</t>
+          <t>北向南</t>
         </is>
       </c>
       <c r="E160" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="F160" t="inlineStr">
         <is>
@@ -5894,7 +5894,7 @@
       </c>
       <c r="G160" t="inlineStr">
         <is>
-          <t>闖紅燈</t>
+          <t>闖紅燈兼路口科技執法監測</t>
         </is>
       </c>
       <c r="H160" t="inlineStr"/>
@@ -5905,21 +5905,21 @@
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>非線圈數位-雷射(雷達)</t>
+          <t>線圈數位</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>前鎮區草衙二路與金福路口</t>
+          <t>三多二路與桂林街口</t>
         </is>
       </c>
       <c r="D161" t="inlineStr">
         <is>
-          <t>北向南</t>
+          <t>西向東</t>
         </is>
       </c>
       <c r="E161" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="F161" t="inlineStr">
         <is>
@@ -5939,12 +5939,12 @@
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>非線圈數位-雷射(雷達)</t>
+          <t>非線圈數位-雷達(雷射)</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>前鎮區成功二路與舊凱旋四路口</t>
+          <t>凱旋四路與籬仔內路口</t>
         </is>
       </c>
       <c r="D162" t="inlineStr">
@@ -5978,16 +5978,16 @@
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>前鎮區凱旋四路與鎮興路口</t>
+          <t>前鎮區草衙二路與金福路口</t>
         </is>
       </c>
       <c r="D163" t="inlineStr">
         <is>
-          <t>東向西</t>
+          <t>北向南</t>
         </is>
       </c>
       <c r="E163" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="F163" t="inlineStr">
         <is>
@@ -6012,12 +6012,12 @@
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>前鎮區舊凱旋四路與鎮興路口</t>
+          <t>前鎮區成功二路與舊凱旋四路口</t>
         </is>
       </c>
       <c r="D164" t="inlineStr">
         <is>
-          <t>西向東</t>
+          <t>南向北</t>
         </is>
       </c>
       <c r="E164" t="n">
@@ -6046,12 +6046,12 @@
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>前鎮區舊凱旋四路與前鎮街口</t>
+          <t>前鎮區凱旋四路與鎮興路口</t>
         </is>
       </c>
       <c r="D165" t="inlineStr">
         <is>
-          <t>西向東</t>
+          <t>東向西</t>
         </is>
       </c>
       <c r="E165" t="n">
@@ -6075,21 +6075,21 @@
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>雷達數位</t>
+          <t>非線圈數位-雷射(雷達)</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>前鎮區新生高架道路0.82K</t>
+          <t>前鎮區舊凱旋四路與鎮興路口</t>
         </is>
       </c>
       <c r="D166" t="inlineStr">
         <is>
-          <t>南向北</t>
+          <t>西向東</t>
         </is>
       </c>
       <c r="E166" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="F166" t="inlineStr">
         <is>
@@ -6098,7 +6098,7 @@
       </c>
       <c r="G166" t="inlineStr">
         <is>
-          <t>超速</t>
+          <t>闖紅燈</t>
         </is>
       </c>
       <c r="H166" t="inlineStr"/>
@@ -6114,18 +6114,16 @@
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>前鎮區凱旋四路與前鎮街口(輕軌沿線)</t>
+          <t>前鎮區舊凱旋四路與前鎮街口</t>
         </is>
       </c>
       <c r="D167" t="inlineStr">
         <is>
-          <t>東向西</t>
-        </is>
-      </c>
-      <c r="E167" t="inlineStr">
-        <is>
-          <t>50/40</t>
-        </is>
+          <t>西向東</t>
+        </is>
+      </c>
+      <c r="E167" t="n">
+        <v>50</v>
       </c>
       <c r="F167" t="inlineStr">
         <is>
@@ -6145,23 +6143,21 @@
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>非線圈數位-雷射</t>
+          <t>雷達數位</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>前鎮區新生路與金福路口</t>
+          <t>前鎮區新生高架道路0.82K</t>
         </is>
       </c>
       <c r="D168" t="inlineStr">
         <is>
-          <t>北向南</t>
-        </is>
-      </c>
-      <c r="E168" t="inlineStr">
-        <is>
-          <t>50/40</t>
-        </is>
+          <t>南向北</t>
+        </is>
+      </c>
+      <c r="E168" t="n">
+        <v>60</v>
       </c>
       <c r="F168" t="inlineStr">
         <is>
@@ -6170,7 +6166,7 @@
       </c>
       <c r="G168" t="inlineStr">
         <is>
-          <t>闖紅燈</t>
+          <t>超速</t>
         </is>
       </c>
       <c r="H168" t="inlineStr"/>
@@ -6181,17 +6177,17 @@
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>非線圈數位-雷射</t>
+          <t>非線圈數位-雷射(雷達)</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>前鎮區新生路與金福路口</t>
+          <t>前鎮區凱旋四路與前鎮街口(輕軌沿線)</t>
         </is>
       </c>
       <c r="D169" t="inlineStr">
         <is>
-          <t>南向北</t>
+          <t>東向西</t>
         </is>
       </c>
       <c r="E169" t="inlineStr">
@@ -6206,7 +6202,7 @@
       </c>
       <c r="G169" t="inlineStr">
         <is>
-          <t>闖紅燈兼路口科技執法監測</t>
+          <t>闖紅燈</t>
         </is>
       </c>
       <c r="H169" t="inlineStr"/>
@@ -6217,21 +6213,23 @@
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>雷達數位</t>
+          <t>非線圈數位-雷射</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>高速公路接金福路之高架聯絡道南下（離金福路出口900公尺處)</t>
+          <t>前鎮區新生路與金福路口</t>
         </is>
       </c>
       <c r="D170" t="inlineStr">
         <is>
-          <t>東向西</t>
-        </is>
-      </c>
-      <c r="E170" t="n">
-        <v>40</v>
+          <t>北向南</t>
+        </is>
+      </c>
+      <c r="E170" t="inlineStr">
+        <is>
+          <t>50/40</t>
+        </is>
       </c>
       <c r="F170" t="inlineStr">
         <is>
@@ -6240,7 +6238,7 @@
       </c>
       <c r="G170" t="inlineStr">
         <is>
-          <t>超速</t>
+          <t>闖紅燈</t>
         </is>
       </c>
       <c r="H170" t="inlineStr"/>
@@ -6251,12 +6249,12 @@
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>雷達數位</t>
+          <t>非線圈數位-雷射</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>高速公路接金福路之高架聯絡道北上（離金福路出口500公尺處)</t>
+          <t>前鎮區新生路與金福路口</t>
         </is>
       </c>
       <c r="D171" t="inlineStr">
@@ -6264,8 +6262,10 @@
           <t>南向北</t>
         </is>
       </c>
-      <c r="E171" t="n">
-        <v>40</v>
+      <c r="E171" t="inlineStr">
+        <is>
+          <t>50/40</t>
+        </is>
       </c>
       <c r="F171" t="inlineStr">
         <is>
@@ -6274,7 +6274,7 @@
       </c>
       <c r="G171" t="inlineStr">
         <is>
-          <t>超速</t>
+          <t>闖紅燈兼路口科技執法監測</t>
         </is>
       </c>
       <c r="H171" t="inlineStr"/>
@@ -6285,21 +6285,21 @@
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>非線圈數位-雷射</t>
+          <t>雷達數位</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>前鎮區班超路瑞祥高中前</t>
+          <t>高速公路接金福路之高架聯絡道南下（離金福路出口900公尺處)</t>
         </is>
       </c>
       <c r="D172" t="inlineStr">
         <is>
-          <t>北向南</t>
+          <t>東向西</t>
         </is>
       </c>
       <c r="E172" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="F172" t="inlineStr">
         <is>
@@ -6308,7 +6308,7 @@
       </c>
       <c r="G172" t="inlineStr">
         <is>
-          <t>闖紅燈</t>
+          <t>超速</t>
         </is>
       </c>
       <c r="H172" t="inlineStr"/>
@@ -6319,12 +6319,12 @@
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>非線圈數位-雷射</t>
+          <t>雷達數位</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>前鎮區凱旋三路/二聖一路(輕軌沿線)</t>
+          <t>高速公路接金福路之高架聯絡道北上（離金福路出口500公尺處)</t>
         </is>
       </c>
       <c r="D173" t="inlineStr">
@@ -6333,7 +6333,7 @@
         </is>
       </c>
       <c r="E173" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="F173" t="inlineStr">
         <is>
@@ -6342,7 +6342,7 @@
       </c>
       <c r="G173" t="inlineStr">
         <is>
-          <t>闖紅燈</t>
+          <t>超速</t>
         </is>
       </c>
       <c r="H173" t="inlineStr"/>
@@ -6358,12 +6358,12 @@
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>前鎮區漁港路/草衙一路</t>
+          <t>前鎮區班超路瑞祥高中前</t>
         </is>
       </c>
       <c r="D174" t="inlineStr">
         <is>
-          <t>東向西</t>
+          <t>北向南</t>
         </is>
       </c>
       <c r="E174" t="n">
@@ -6392,7 +6392,7 @@
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>前鎮區中山三路與光華三路口</t>
+          <t>前鎮區凱旋三路/二聖一路(輕軌沿線)</t>
         </is>
       </c>
       <c r="D175" t="inlineStr">
@@ -6400,10 +6400,8 @@
           <t>南向北</t>
         </is>
       </c>
-      <c r="E175" t="inlineStr">
-        <is>
-          <t>60/40</t>
-        </is>
+      <c r="E175" t="n">
+        <v>50</v>
       </c>
       <c r="F175" t="inlineStr">
         <is>
@@ -6412,7 +6410,7 @@
       </c>
       <c r="G175" t="inlineStr">
         <is>
-          <t>闖紅燈兼路口科技執法監測</t>
+          <t>闖紅燈</t>
         </is>
       </c>
       <c r="H175" t="inlineStr"/>
@@ -6428,12 +6426,12 @@
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>前鎮區一心二路/復興三路</t>
+          <t>前鎮區漁港路/草衙一路</t>
         </is>
       </c>
       <c r="D176" t="inlineStr">
         <is>
-          <t>西向東</t>
+          <t>東向西</t>
         </is>
       </c>
       <c r="E176" t="n">
@@ -6457,12 +6455,12 @@
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>雷達數位</t>
+          <t>非線圈數位-雷射</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t>美濃區美興街232號前(月光山隧道前方)</t>
+          <t>前鎮區中山三路與光華三路口</t>
         </is>
       </c>
       <c r="D177" t="inlineStr">
@@ -6470,17 +6468,19 @@
           <t>南向北</t>
         </is>
       </c>
-      <c r="E177" t="n">
-        <v>50</v>
+      <c r="E177" t="inlineStr">
+        <is>
+          <t>60/40</t>
+        </is>
       </c>
       <c r="F177" t="inlineStr">
         <is>
-          <t>美濃</t>
+          <t>前鎮</t>
         </is>
       </c>
       <c r="G177" t="inlineStr">
         <is>
-          <t>超速</t>
+          <t>闖紅燈兼路口科技執法監測</t>
         </is>
       </c>
       <c r="H177" t="inlineStr"/>
@@ -6491,25 +6491,25 @@
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>線圈數位</t>
+          <t>非線圈數位-雷射</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>美濃區中山路二段359巷口</t>
+          <t>前鎮區一心二路/復興三路</t>
         </is>
       </c>
       <c r="D178" t="inlineStr">
         <is>
-          <t>南向北</t>
+          <t>西向東</t>
         </is>
       </c>
       <c r="E178" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="F178" t="inlineStr">
         <is>
-          <t>美濃</t>
+          <t>前鎮</t>
         </is>
       </c>
       <c r="G178" t="inlineStr">
@@ -6530,18 +6530,16 @@
       </c>
       <c r="C179" t="inlineStr">
         <is>
-          <t>美濃區復興街一段480號前</t>
+          <t>美濃區美興街232號前(月光山隧道前方)</t>
         </is>
       </c>
       <c r="D179" t="inlineStr">
         <is>
-          <t>北向南</t>
-        </is>
-      </c>
-      <c r="E179" t="inlineStr">
-        <is>
-          <t>50/40</t>
-        </is>
+          <t>南向北</t>
+        </is>
+      </c>
+      <c r="E179" t="n">
+        <v>50</v>
       </c>
       <c r="F179" t="inlineStr">
         <is>
@@ -6561,17 +6559,17 @@
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>非線圈數位-雷射(雷達)</t>
+          <t>線圈數位</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
         <is>
-          <t>美濃區中華路(台28線)與獅山街口</t>
+          <t>美濃區中山路二段359巷口</t>
         </is>
       </c>
       <c r="D180" t="inlineStr">
         <is>
-          <t>東向西</t>
+          <t>南向北</t>
         </is>
       </c>
       <c r="E180" t="n">
@@ -6584,7 +6582,7 @@
       </c>
       <c r="G180" t="inlineStr">
         <is>
-          <t>闖紅燈兼超速</t>
+          <t>闖紅燈</t>
         </is>
       </c>
       <c r="H180" t="inlineStr"/>
@@ -6600,16 +6598,18 @@
       </c>
       <c r="C181" t="inlineStr">
         <is>
-          <t>美濃區台28線(中興路一段)37K+412</t>
+          <t>美濃區復興街一段480號前</t>
         </is>
       </c>
       <c r="D181" t="inlineStr">
         <is>
-          <t>東向西</t>
-        </is>
-      </c>
-      <c r="E181" t="n">
-        <v>50</v>
+          <t>北向南</t>
+        </is>
+      </c>
+      <c r="E181" t="inlineStr">
+        <is>
+          <t>50/40</t>
+        </is>
       </c>
       <c r="F181" t="inlineStr">
         <is>
@@ -6629,12 +6629,12 @@
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>線圈數位</t>
+          <t>非線圈數位-雷射(雷達)</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
         <is>
-          <t>建國路與武廟路口</t>
+          <t>美濃區中華路(台28線)與獅山街口</t>
         </is>
       </c>
       <c r="D182" t="inlineStr">
@@ -6643,16 +6643,16 @@
         </is>
       </c>
       <c r="E182" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="F182" t="inlineStr">
         <is>
-          <t>苓雅</t>
+          <t>美濃</t>
         </is>
       </c>
       <c r="G182" t="inlineStr">
         <is>
-          <t>闖紅燈</t>
+          <t>闖紅燈兼超速</t>
         </is>
       </c>
       <c r="H182" t="inlineStr"/>
@@ -6663,12 +6663,12 @@
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>線圈數位</t>
+          <t>雷達數位</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>五福三路與英雄路口</t>
+          <t>美濃區台28線(中興路一段)37K+412</t>
         </is>
       </c>
       <c r="D183" t="inlineStr">
@@ -6681,12 +6681,12 @@
       </c>
       <c r="F183" t="inlineStr">
         <is>
-          <t>苓雅</t>
+          <t>美濃</t>
         </is>
       </c>
       <c r="G183" t="inlineStr">
         <is>
-          <t>闖紅燈</t>
+          <t>超速</t>
         </is>
       </c>
       <c r="H183" t="inlineStr"/>
@@ -6697,17 +6697,17 @@
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>非線圈數位-雷射</t>
+          <t>線圈數位</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
         <is>
-          <t>建國一路與正義路口</t>
+          <t>建國路與武廟路口</t>
         </is>
       </c>
       <c r="D184" t="inlineStr">
         <is>
-          <t>西向東</t>
+          <t>東向西</t>
         </is>
       </c>
       <c r="E184" t="n">
@@ -6731,17 +6731,17 @@
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>雷達數位</t>
+          <t>線圈數位</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
         <is>
-          <t>中山二路361號前</t>
+          <t>五福三路與英雄路口</t>
         </is>
       </c>
       <c r="D185" t="inlineStr">
         <is>
-          <t>北向南</t>
+          <t>東向西</t>
         </is>
       </c>
       <c r="E185" t="n">
@@ -6754,7 +6754,7 @@
       </c>
       <c r="G185" t="inlineStr">
         <is>
-          <t>超速</t>
+          <t>闖紅燈</t>
         </is>
       </c>
       <c r="H185" t="inlineStr"/>
@@ -6765,17 +6765,17 @@
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>雷達數位</t>
+          <t>非線圈數位-雷射</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
         <is>
-          <t>中山二路432號前</t>
+          <t>建國一路與正義路口</t>
         </is>
       </c>
       <c r="D186" t="inlineStr">
         <is>
-          <t>南向北</t>
+          <t>西向東</t>
         </is>
       </c>
       <c r="E186" t="n">
@@ -6788,7 +6788,7 @@
       </c>
       <c r="G186" t="inlineStr">
         <is>
-          <t>超速</t>
+          <t>闖紅燈</t>
         </is>
       </c>
       <c r="H186" t="inlineStr"/>
@@ -6799,17 +6799,17 @@
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>線圈數位</t>
+          <t>雷達數位</t>
         </is>
       </c>
       <c r="C187" t="inlineStr">
         <is>
-          <t>武營路與三多一路口</t>
+          <t>中山二路361號前</t>
         </is>
       </c>
       <c r="D187" t="inlineStr">
         <is>
-          <t>南向北</t>
+          <t>北向南</t>
         </is>
       </c>
       <c r="E187" t="n">
@@ -6822,7 +6822,7 @@
       </c>
       <c r="G187" t="inlineStr">
         <is>
-          <t>闖紅燈</t>
+          <t>超速</t>
         </is>
       </c>
       <c r="H187" t="inlineStr"/>
@@ -6833,17 +6833,17 @@
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>線圈數位</t>
+          <t>雷達數位</t>
         </is>
       </c>
       <c r="C188" t="inlineStr">
         <is>
-          <t>五福一路與凱旋二路口</t>
+          <t>中山二路432號前</t>
         </is>
       </c>
       <c r="D188" t="inlineStr">
         <is>
-          <t>西向東</t>
+          <t>南向北</t>
         </is>
       </c>
       <c r="E188" t="n">
@@ -6856,7 +6856,7 @@
       </c>
       <c r="G188" t="inlineStr">
         <is>
-          <t>闖紅燈</t>
+          <t>超速</t>
         </is>
       </c>
       <c r="H188" t="inlineStr"/>
@@ -6872,12 +6872,12 @@
       </c>
       <c r="C189" t="inlineStr">
         <is>
-          <t>建國一路與中山高涵洞東側</t>
+          <t>武營路與三多一路口</t>
         </is>
       </c>
       <c r="D189" t="inlineStr">
         <is>
-          <t>西向北</t>
+          <t>南向北</t>
         </is>
       </c>
       <c r="E189" t="n">
@@ -6890,7 +6890,7 @@
       </c>
       <c r="G189" t="inlineStr">
         <is>
-          <t>違左</t>
+          <t>闖紅燈</t>
         </is>
       </c>
       <c r="H189" t="inlineStr"/>
@@ -6901,17 +6901,17 @@
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>雷達數位</t>
+          <t>線圈數位</t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
         <is>
-          <t>中正一路國軍高雄總醫院旁</t>
+          <t>五福一路與凱旋二路口</t>
         </is>
       </c>
       <c r="D190" t="inlineStr">
         <is>
-          <t>東西向</t>
+          <t>西向東</t>
         </is>
       </c>
       <c r="E190" t="n">
@@ -6924,7 +6924,7 @@
       </c>
       <c r="G190" t="inlineStr">
         <is>
-          <t>超速</t>
+          <t>闖紅燈</t>
         </is>
       </c>
       <c r="H190" t="inlineStr"/>
@@ -6935,17 +6935,17 @@
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>雷達數位</t>
+          <t>線圈數位</t>
         </is>
       </c>
       <c r="C191" t="inlineStr">
         <is>
-          <t>中正地下道(東向西出口)(超速)</t>
+          <t>建國一路與中山高涵洞東側</t>
         </is>
       </c>
       <c r="D191" t="inlineStr">
         <is>
-          <t>東向西</t>
+          <t>西向北</t>
         </is>
       </c>
       <c r="E191" t="n">
@@ -6958,7 +6958,7 @@
       </c>
       <c r="G191" t="inlineStr">
         <is>
-          <t>超速</t>
+          <t>違左</t>
         </is>
       </c>
       <c r="H191" t="inlineStr"/>
@@ -6974,12 +6974,12 @@
       </c>
       <c r="C192" t="inlineStr">
         <is>
-          <t>中正地下道(西向東出口)(超速)</t>
+          <t>中正一路國軍高雄總醫院旁</t>
         </is>
       </c>
       <c r="D192" t="inlineStr">
         <is>
-          <t>西向東</t>
+          <t>東西向</t>
         </is>
       </c>
       <c r="E192" t="n">
@@ -7003,17 +7003,17 @@
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>線圈數位</t>
+          <t>雷達數位</t>
         </is>
       </c>
       <c r="C193" t="inlineStr">
         <is>
-          <t>五福一路與和平一路口</t>
+          <t>中正地下道(東向西出口)(超速)</t>
         </is>
       </c>
       <c r="D193" t="inlineStr">
         <is>
-          <t>西向東</t>
+          <t>東向西</t>
         </is>
       </c>
       <c r="E193" t="n">
@@ -7026,7 +7026,7 @@
       </c>
       <c r="G193" t="inlineStr">
         <is>
-          <t>闖紅燈</t>
+          <t>超速</t>
         </is>
       </c>
       <c r="H193" t="inlineStr"/>
@@ -7037,12 +7037,12 @@
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>非線圈數位-雷射(雷達)</t>
+          <t>雷達數位</t>
         </is>
       </c>
       <c r="C194" t="inlineStr">
         <is>
-          <t>苓雅區中正一路與高速公路</t>
+          <t>中正地下道(西向東出口)(超速)</t>
         </is>
       </c>
       <c r="D194" t="inlineStr">
@@ -7050,10 +7050,8 @@
           <t>西向東</t>
         </is>
       </c>
-      <c r="E194" t="inlineStr">
-        <is>
-          <t>50/40</t>
-        </is>
+      <c r="E194" t="n">
+        <v>50</v>
       </c>
       <c r="F194" t="inlineStr">
         <is>
@@ -7062,7 +7060,7 @@
       </c>
       <c r="G194" t="inlineStr">
         <is>
-          <t>闖紅燈</t>
+          <t>超速</t>
         </is>
       </c>
       <c r="H194" t="inlineStr"/>
@@ -7073,12 +7071,12 @@
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>非線圈數位-雷射</t>
+          <t>線圈數位</t>
         </is>
       </c>
       <c r="C195" t="inlineStr">
         <is>
-          <t>苓雅區三多一路與建軍路口</t>
+          <t>五福一路與和平一路口</t>
         </is>
       </c>
       <c r="D195" t="inlineStr">
@@ -7107,21 +7105,23 @@
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>非線圈數位-雷射</t>
+          <t>非線圈數位-雷射(雷達)</t>
         </is>
       </c>
       <c r="C196" t="inlineStr">
         <is>
-          <t>苓雅區三多二路與凱旋二路口</t>
+          <t>苓雅區中正一路與高速公路</t>
         </is>
       </c>
       <c r="D196" t="inlineStr">
         <is>
-          <t>東向西</t>
-        </is>
-      </c>
-      <c r="E196" t="n">
-        <v>50</v>
+          <t>西向東</t>
+        </is>
+      </c>
+      <c r="E196" t="inlineStr">
+        <is>
+          <t>50/40</t>
+        </is>
       </c>
       <c r="F196" t="inlineStr">
         <is>
@@ -7146,12 +7146,12 @@
       </c>
       <c r="C197" t="inlineStr">
         <is>
-          <t>苓雅區凱旋二路/四維一路</t>
+          <t>苓雅區三多一路與建軍路口</t>
         </is>
       </c>
       <c r="D197" t="inlineStr">
         <is>
-          <t>南向北</t>
+          <t>西向東</t>
         </is>
       </c>
       <c r="E197" t="n">
@@ -7180,12 +7180,12 @@
       </c>
       <c r="C198" t="inlineStr">
         <is>
-          <t>苓雅區輔仁路/中正一路</t>
+          <t>苓雅區三多二路與凱旋二路口</t>
         </is>
       </c>
       <c r="D198" t="inlineStr">
         <is>
-          <t>南向北</t>
+          <t>東向西</t>
         </is>
       </c>
       <c r="E198" t="n">
@@ -7214,12 +7214,12 @@
       </c>
       <c r="C199" t="inlineStr">
         <is>
-          <t>苓雅區中正一路/河南路/大順三路</t>
+          <t>苓雅區凱旋二路/四維一路</t>
         </is>
       </c>
       <c r="D199" t="inlineStr">
         <is>
-          <t>西向東</t>
+          <t>南向北</t>
         </is>
       </c>
       <c r="E199" t="n">
@@ -7232,7 +7232,7 @@
       </c>
       <c r="G199" t="inlineStr">
         <is>
-          <t>闖紅燈兼路口科技執法監測</t>
+          <t>闖紅燈</t>
         </is>
       </c>
       <c r="H199" t="inlineStr"/>
@@ -7248,12 +7248,12 @@
       </c>
       <c r="C200" t="inlineStr">
         <is>
-          <t>苓雅區中華四路與四維四路口</t>
+          <t>苓雅區中正一路/河南路/大順三路</t>
         </is>
       </c>
       <c r="D200" t="inlineStr">
         <is>
-          <t>南向北</t>
+          <t>西向東</t>
         </is>
       </c>
       <c r="E200" t="n">
@@ -7266,7 +7266,7 @@
       </c>
       <c r="G200" t="inlineStr">
         <is>
-          <t>闖紅燈</t>
+          <t>闖紅燈兼路口科技執法監測</t>
         </is>
       </c>
       <c r="H200" t="inlineStr"/>
@@ -7282,20 +7282,20 @@
       </c>
       <c r="C201" t="inlineStr">
         <is>
-          <t>茄萣區正順北路(高1-1線)與崎漏路口</t>
+          <t>苓雅區中華四路與四維四路口</t>
         </is>
       </c>
       <c r="D201" t="inlineStr">
         <is>
-          <t>東向西</t>
+          <t>南向北</t>
         </is>
       </c>
       <c r="E201" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="F201" t="inlineStr">
         <is>
-          <t>茄萣</t>
+          <t>苓雅</t>
         </is>
       </c>
       <c r="G201" t="inlineStr">
@@ -7311,21 +7311,21 @@
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>雷達數位</t>
+          <t>非線圈數位-雷射</t>
         </is>
       </c>
       <c r="C202" t="inlineStr">
         <is>
-          <t>茄萣區正順北路近正順東路口</t>
+          <t>茄萣區正順北路(高1-1線)與崎漏路口</t>
         </is>
       </c>
       <c r="D202" t="inlineStr">
         <is>
-          <t>西向東</t>
+          <t>東向西</t>
         </is>
       </c>
       <c r="E202" t="n">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="F202" t="inlineStr">
         <is>
@@ -7334,7 +7334,7 @@
       </c>
       <c r="G202" t="inlineStr">
         <is>
-          <t>超速</t>
+          <t>闖紅燈</t>
         </is>
       </c>
       <c r="H202" t="inlineStr"/>
@@ -7350,20 +7350,20 @@
       </c>
       <c r="C203" t="inlineStr">
         <is>
-          <t>鳥松區神農路54-6號前</t>
+          <t>茄萣區正順北路近正順東路口</t>
         </is>
       </c>
       <c r="D203" t="inlineStr">
         <is>
-          <t>東西向</t>
+          <t>西向東</t>
         </is>
       </c>
       <c r="E203" t="n">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="F203" t="inlineStr">
         <is>
-          <t>鳥松</t>
+          <t>茄萣</t>
         </is>
       </c>
       <c r="G203" t="inlineStr">
@@ -7384,16 +7384,16 @@
       </c>
       <c r="C204" t="inlineStr">
         <is>
-          <t>鳥松區大埤路32號自來水廠前</t>
+          <t>鳥松區神農路54-6號前</t>
         </is>
       </c>
       <c r="D204" t="inlineStr">
         <is>
-          <t>南北雙向</t>
+          <t>東西向</t>
         </is>
       </c>
       <c r="E204" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="F204" t="inlineStr">
         <is>
@@ -7413,30 +7413,30 @@
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>線圈數位</t>
+          <t>雷達數位</t>
         </is>
       </c>
       <c r="C205" t="inlineStr">
         <is>
-          <t>湖內區中山路一段與284巷口</t>
+          <t>鳥松區大埤路32號自來水廠前</t>
         </is>
       </c>
       <c r="D205" t="inlineStr">
         <is>
-          <t>南向北</t>
+          <t>南北雙向</t>
         </is>
       </c>
       <c r="E205" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="F205" t="inlineStr">
         <is>
-          <t>湖內</t>
+          <t>鳥松</t>
         </is>
       </c>
       <c r="G205" t="inlineStr">
         <is>
-          <t>闖紅燈</t>
+          <t>超速</t>
         </is>
       </c>
       <c r="H205" t="inlineStr"/>
@@ -7447,12 +7447,12 @@
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>非線圈數位-雷射(雷達)</t>
+          <t>線圈數位</t>
         </is>
       </c>
       <c r="C206" t="inlineStr">
         <is>
-          <t>湖內區和平路與東方路口</t>
+          <t>湖內區中山路一段與284巷口</t>
         </is>
       </c>
       <c r="D206" t="inlineStr">
@@ -7470,7 +7470,7 @@
       </c>
       <c r="G206" t="inlineStr">
         <is>
-          <t>闖紅燈兼超速</t>
+          <t>闖紅燈</t>
         </is>
       </c>
       <c r="H206" t="inlineStr"/>
@@ -7481,30 +7481,30 @@
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>線圈數位</t>
+          <t>非線圈數位-雷射(雷達)</t>
         </is>
       </c>
       <c r="C207" t="inlineStr">
         <is>
-          <t>民生一路與仁愛二街口</t>
+          <t>湖內區和平路與東方路口</t>
         </is>
       </c>
       <c r="D207" t="inlineStr">
         <is>
-          <t>西向東</t>
+          <t>南向北</t>
         </is>
       </c>
       <c r="E207" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="F207" t="inlineStr">
         <is>
-          <t>新興</t>
+          <t>湖內</t>
         </is>
       </c>
       <c r="G207" t="inlineStr">
         <is>
-          <t>闖紅燈</t>
+          <t>闖紅燈兼超速</t>
         </is>
       </c>
       <c r="H207" t="inlineStr"/>
@@ -7520,12 +7520,12 @@
       </c>
       <c r="C208" t="inlineStr">
         <is>
-          <t>旗楠路與土庫一路口</t>
+          <t>民生一路與仁愛二街口</t>
         </is>
       </c>
       <c r="D208" t="inlineStr">
         <is>
-          <t>東向西</t>
+          <t>西向東</t>
         </is>
       </c>
       <c r="E208" t="n">
@@ -7533,7 +7533,7 @@
       </c>
       <c r="F208" t="inlineStr">
         <is>
-          <t>楠梓</t>
+          <t>新興</t>
         </is>
       </c>
       <c r="G208" t="inlineStr">
@@ -7554,16 +7554,16 @@
       </c>
       <c r="C209" t="inlineStr">
         <is>
-          <t>德中路與大學二十九路口</t>
+          <t>旗楠路與土庫一路口</t>
         </is>
       </c>
       <c r="D209" t="inlineStr">
         <is>
-          <t>南向北</t>
+          <t>東向西</t>
         </is>
       </c>
       <c r="E209" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="F209" t="inlineStr">
         <is>
@@ -7583,23 +7583,21 @@
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>非線圈數位-雷射(雷達)</t>
+          <t>線圈數位</t>
         </is>
       </c>
       <c r="C210" t="inlineStr">
         <is>
-          <t>德民路與海專路口</t>
+          <t>德中路與大學二十九路口</t>
         </is>
       </c>
       <c r="D210" t="inlineStr">
         <is>
-          <t>西向東</t>
-        </is>
-      </c>
-      <c r="E210" t="inlineStr">
-        <is>
-          <t>60/40</t>
-        </is>
+          <t>南向北</t>
+        </is>
+      </c>
+      <c r="E210" t="n">
+        <v>60</v>
       </c>
       <c r="F210" t="inlineStr">
         <is>
@@ -7619,21 +7617,23 @@
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>線圈數位</t>
+          <t>非線圈數位-雷射(雷達)</t>
         </is>
       </c>
       <c r="C211" t="inlineStr">
         <is>
-          <t>旗楠路與常德路口</t>
+          <t>德民路與海專路口</t>
         </is>
       </c>
       <c r="D211" t="inlineStr">
         <is>
-          <t>東向西</t>
-        </is>
-      </c>
-      <c r="E211" t="n">
-        <v>60</v>
+          <t>西向東</t>
+        </is>
+      </c>
+      <c r="E211" t="inlineStr">
+        <is>
+          <t>60/40</t>
+        </is>
       </c>
       <c r="F211" t="inlineStr">
         <is>
@@ -7658,16 +7658,16 @@
       </c>
       <c r="C212" t="inlineStr">
         <is>
-          <t>左楠路與後昌路口</t>
+          <t>旗楠路與常德路口</t>
         </is>
       </c>
       <c r="D212" t="inlineStr">
         <is>
-          <t>南向北</t>
+          <t>東向西</t>
         </is>
       </c>
       <c r="E212" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="F212" t="inlineStr">
         <is>
@@ -7687,21 +7687,21 @@
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>雷達數位</t>
+          <t>線圈數位</t>
         </is>
       </c>
       <c r="C213" t="inlineStr">
         <is>
-          <t>德中路與大學二十九路口</t>
+          <t>左楠路與後昌路口</t>
         </is>
       </c>
       <c r="D213" t="inlineStr">
         <is>
-          <t>北向南</t>
+          <t>南向北</t>
         </is>
       </c>
       <c r="E213" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="F213" t="inlineStr">
         <is>
@@ -7710,7 +7710,7 @@
       </c>
       <c r="G213" t="inlineStr">
         <is>
-          <t>超速</t>
+          <t>闖紅燈</t>
         </is>
       </c>
       <c r="H213" t="inlineStr"/>
@@ -7726,12 +7726,12 @@
       </c>
       <c r="C214" t="inlineStr">
         <is>
-          <t>高楠公路1015-6號前</t>
+          <t>德中路與大學二十九路口</t>
         </is>
       </c>
       <c r="D214" t="inlineStr">
         <is>
-          <t>南北向</t>
+          <t>北向南</t>
         </is>
       </c>
       <c r="E214" t="n">
@@ -7755,66 +7755,64 @@
       </c>
       <c r="B215" t="inlineStr">
         <is>
+          <t>雷達數位</t>
+        </is>
+      </c>
+      <c r="C215" t="inlineStr">
+        <is>
+          <t>高楠公路1015-6號前</t>
+        </is>
+      </c>
+      <c r="D215" t="inlineStr">
+        <is>
+          <t>南北向</t>
+        </is>
+      </c>
+      <c r="E215" t="n">
+        <v>60</v>
+      </c>
+      <c r="F215" t="inlineStr">
+        <is>
+          <t>楠梓</t>
+        </is>
+      </c>
+      <c r="G215" t="inlineStr">
+        <is>
+          <t>超速</t>
+        </is>
+      </c>
+      <c r="H215" t="inlineStr"/>
+    </row>
+    <row r="216">
+      <c r="A216" t="n">
+        <v>215</v>
+      </c>
+      <c r="B216" t="inlineStr">
+        <is>
           <t>線圈數位</t>
         </is>
       </c>
-      <c r="C215" t="inlineStr">
+      <c r="C216" t="inlineStr">
         <is>
           <t>加昌路與左楠路口</t>
         </is>
       </c>
-      <c r="D215" t="inlineStr">
+      <c r="D216" t="inlineStr">
         <is>
           <t>西向東</t>
         </is>
       </c>
-      <c r="E215" t="n">
+      <c r="E216" t="n">
         <v>50</v>
       </c>
-      <c r="F215" t="inlineStr">
+      <c r="F216" t="inlineStr">
         <is>
           <t>楠梓</t>
         </is>
       </c>
-      <c r="G215" t="inlineStr">
+      <c r="G216" t="inlineStr">
         <is>
           <t>闖紅燈</t>
-        </is>
-      </c>
-      <c r="H215" t="inlineStr"/>
-    </row>
-    <row r="216">
-      <c r="A216" t="inlineStr">
-        <is>
-          <t>215/td&gt;</t>
-        </is>
-      </c>
-      <c r="B216" t="inlineStr">
-        <is>
-          <t>非線圈數位-雷射(雷達)</t>
-        </is>
-      </c>
-      <c r="C216" t="inlineStr">
-        <is>
-          <t>高楠公路與德民路口</t>
-        </is>
-      </c>
-      <c r="D216" t="inlineStr">
-        <is>
-          <t>南向北</t>
-        </is>
-      </c>
-      <c r="E216" t="n">
-        <v>60</v>
-      </c>
-      <c r="F216" t="inlineStr">
-        <is>
-          <t>楠梓</t>
-        </is>
-      </c>
-      <c r="G216" t="inlineStr">
-        <is>
-          <t>闖紅燈兼超速</t>
         </is>
       </c>
       <c r="H216" t="inlineStr"/>
@@ -7825,21 +7823,21 @@
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>線圈數位</t>
+          <t>非線圈數位-雷射(雷達)</t>
         </is>
       </c>
       <c r="C217" t="inlineStr">
         <is>
-          <t>高楠公路與水管路口</t>
+          <t>高楠公路與德民路口</t>
         </is>
       </c>
       <c r="D217" t="inlineStr">
         <is>
-          <t>北向南</t>
+          <t>南向北</t>
         </is>
       </c>
       <c r="E217" t="n">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="F217" t="inlineStr">
         <is>
@@ -7848,7 +7846,7 @@
       </c>
       <c r="G217" t="inlineStr">
         <is>
-          <t>闖紅燈</t>
+          <t>闖紅燈兼超速</t>
         </is>
       </c>
       <c r="H217" t="inlineStr"/>
@@ -7864,16 +7862,16 @@
       </c>
       <c r="C218" t="inlineStr">
         <is>
-          <t>楠梓區德民路與德惠路口</t>
+          <t>高楠公路與水管路口</t>
         </is>
       </c>
       <c r="D218" t="inlineStr">
         <is>
-          <t>東向西</t>
+          <t>北向南</t>
         </is>
       </c>
       <c r="E218" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="F218" t="inlineStr">
         <is>
@@ -7893,17 +7891,17 @@
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>非線圈數位-雷射</t>
+          <t>線圈數位</t>
         </is>
       </c>
       <c r="C219" t="inlineStr">
         <is>
-          <t>楠梓區左楠路與外環西路</t>
+          <t>楠梓區德民路與德惠路口</t>
         </is>
       </c>
       <c r="D219" t="inlineStr">
         <is>
-          <t>北向南</t>
+          <t>東向西</t>
         </is>
       </c>
       <c r="E219" t="n">
@@ -7927,21 +7925,21 @@
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>線圈數位</t>
+          <t>非線圈數位-雷射</t>
         </is>
       </c>
       <c r="C220" t="inlineStr">
         <is>
-          <t>楠陽路與鳳楠路口</t>
+          <t>楠梓區左楠路與外環西路</t>
         </is>
       </c>
       <c r="D220" t="inlineStr">
         <is>
-          <t>西向東</t>
+          <t>北向南</t>
         </is>
       </c>
       <c r="E220" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="F220" t="inlineStr">
         <is>
@@ -7966,12 +7964,12 @@
       </c>
       <c r="C221" t="inlineStr">
         <is>
-          <t>高楠公路金屬研發中心前(高楠公路1003巷口)</t>
+          <t>楠陽路與鳳楠路口</t>
         </is>
       </c>
       <c r="D221" t="inlineStr">
         <is>
-          <t>南向北</t>
+          <t>西向東</t>
         </is>
       </c>
       <c r="E221" t="n">
@@ -7995,21 +7993,21 @@
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>非線圈數位-雷射(雷達)</t>
+          <t>線圈數位</t>
         </is>
       </c>
       <c r="C222" t="inlineStr">
         <is>
-          <t>楠梓區加昌路/瑞屏路</t>
+          <t>高楠公路金屬研發中心前(高楠公路1003巷口)</t>
         </is>
       </c>
       <c r="D222" t="inlineStr">
         <is>
-          <t>東向西</t>
+          <t>南向北</t>
         </is>
       </c>
       <c r="E222" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="F222" t="inlineStr">
         <is>
@@ -8018,7 +8016,7 @@
       </c>
       <c r="G222" t="inlineStr">
         <is>
-          <t>闖紅燈兼超速</t>
+          <t>闖紅燈</t>
         </is>
       </c>
       <c r="H222" t="inlineStr"/>
@@ -8029,12 +8027,12 @@
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>線圈數位</t>
+          <t>非線圈數位-雷射(雷達)</t>
         </is>
       </c>
       <c r="C223" t="inlineStr">
         <is>
-          <t>路竹區環球路新生路口</t>
+          <t>楠梓區加昌路/瑞屏路</t>
         </is>
       </c>
       <c r="D223" t="inlineStr">
@@ -8043,16 +8041,16 @@
         </is>
       </c>
       <c r="E223" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="F223" t="inlineStr">
         <is>
-          <t>路竹</t>
+          <t>楠梓</t>
         </is>
       </c>
       <c r="G223" t="inlineStr">
         <is>
-          <t>闖紅燈</t>
+          <t>闖紅燈兼超速</t>
         </is>
       </c>
       <c r="H223" t="inlineStr"/>
@@ -8063,17 +8061,17 @@
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>非線圈數位-雷射(雷達)</t>
+          <t>線圈數位</t>
         </is>
       </c>
       <c r="C224" t="inlineStr">
         <is>
-          <t>路竹區環球路與樹人醫事學校前路口</t>
+          <t>路竹區環球路新生路口</t>
         </is>
       </c>
       <c r="D224" t="inlineStr">
         <is>
-          <t>西向東</t>
+          <t>東向西</t>
         </is>
       </c>
       <c r="E224" t="n">
@@ -8086,7 +8084,7 @@
       </c>
       <c r="G224" t="inlineStr">
         <is>
-          <t>闖紅燈兼超速</t>
+          <t>闖紅燈</t>
         </is>
       </c>
       <c r="H224" t="inlineStr"/>
@@ -8102,16 +8100,16 @@
       </c>
       <c r="C225" t="inlineStr">
         <is>
-          <t>路竹區復興路327巷口</t>
+          <t>路竹區環球路與樹人醫事學校前路口</t>
         </is>
       </c>
       <c r="D225" t="inlineStr">
         <is>
-          <t>南向北</t>
+          <t>西向東</t>
         </is>
       </c>
       <c r="E225" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="F225" t="inlineStr">
         <is>
@@ -8131,17 +8129,17 @@
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>非線圈數位-雷射</t>
+          <t>非線圈數位-雷射(雷達)</t>
         </is>
       </c>
       <c r="C226" t="inlineStr">
         <is>
-          <t>路竹區中山路與國昌路口</t>
+          <t>路竹區復興路327巷口</t>
         </is>
       </c>
       <c r="D226" t="inlineStr">
         <is>
-          <t>北向南</t>
+          <t>南向北</t>
         </is>
       </c>
       <c r="E226" t="n">
@@ -8154,7 +8152,7 @@
       </c>
       <c r="G226" t="inlineStr">
         <is>
-          <t>闖紅燈</t>
+          <t>闖紅燈兼超速</t>
         </is>
       </c>
       <c r="H226" t="inlineStr"/>
@@ -8165,17 +8163,17 @@
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>雷達數位</t>
+          <t>非線圈數位-雷射</t>
         </is>
       </c>
       <c r="C227" t="inlineStr">
         <is>
-          <t>路竹區復興路與復興路1133巷口</t>
+          <t>路竹區中山路與國昌路口</t>
         </is>
       </c>
       <c r="D227" t="inlineStr">
         <is>
-          <t>南向北</t>
+          <t>北向南</t>
         </is>
       </c>
       <c r="E227" t="n">
@@ -8188,7 +8186,7 @@
       </c>
       <c r="G227" t="inlineStr">
         <is>
-          <t>超速</t>
+          <t>闖紅燈</t>
         </is>
       </c>
       <c r="H227" t="inlineStr"/>
@@ -8199,17 +8197,17 @@
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>線圈數位</t>
+          <t>雷達數位</t>
         </is>
       </c>
       <c r="C228" t="inlineStr">
         <is>
-          <t>明誠三路與南屏路口</t>
+          <t>路竹區復興路與復興路1133巷口</t>
         </is>
       </c>
       <c r="D228" t="inlineStr">
         <is>
-          <t>西向東</t>
+          <t>南向北</t>
         </is>
       </c>
       <c r="E228" t="n">
@@ -8217,12 +8215,12 @@
       </c>
       <c r="F228" t="inlineStr">
         <is>
-          <t>鼓山</t>
+          <t>路竹</t>
         </is>
       </c>
       <c r="G228" t="inlineStr">
         <is>
-          <t>闖紅燈</t>
+          <t>超速</t>
         </is>
       </c>
       <c r="H228" t="inlineStr"/>
@@ -8233,21 +8231,21 @@
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>非線圈數位-雷射(雷達)</t>
+          <t>線圈數位</t>
         </is>
       </c>
       <c r="C229" t="inlineStr">
         <is>
-          <t>中華一路與大順一路口</t>
+          <t>明誠三路與南屏路口</t>
         </is>
       </c>
       <c r="D229" t="inlineStr">
         <is>
-          <t>南向北</t>
+          <t>西向東</t>
         </is>
       </c>
       <c r="E229" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="F229" t="inlineStr">
         <is>
@@ -8256,7 +8254,7 @@
       </c>
       <c r="G229" t="inlineStr">
         <is>
-          <t>闖紅燈兼超速</t>
+          <t>闖紅燈</t>
         </is>
       </c>
       <c r="H229" t="inlineStr"/>
@@ -8267,17 +8265,17 @@
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>線圈數位</t>
+          <t>非線圈數位-雷射(雷達)</t>
         </is>
       </c>
       <c r="C230" t="inlineStr">
         <is>
-          <t>中華一路與美術北三路口</t>
+          <t>中華一路與大順一路口</t>
         </is>
       </c>
       <c r="D230" t="inlineStr">
         <is>
-          <t>北向南</t>
+          <t>南向北</t>
         </is>
       </c>
       <c r="E230" t="n">
@@ -8290,7 +8288,7 @@
       </c>
       <c r="G230" t="inlineStr">
         <is>
-          <t>闖紅燈</t>
+          <t>闖紅燈兼超速</t>
         </is>
       </c>
       <c r="H230" t="inlineStr"/>
@@ -8301,12 +8299,12 @@
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>雷達數位</t>
+          <t>線圈數位</t>
         </is>
       </c>
       <c r="C231" t="inlineStr">
         <is>
-          <t>鼓山三路與青峰路口</t>
+          <t>中華一路與美術北三路口</t>
         </is>
       </c>
       <c r="D231" t="inlineStr">
@@ -8315,7 +8313,7 @@
         </is>
       </c>
       <c r="E231" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="F231" t="inlineStr">
         <is>
@@ -8324,7 +8322,7 @@
       </c>
       <c r="G231" t="inlineStr">
         <is>
-          <t>超速</t>
+          <t>闖紅燈</t>
         </is>
       </c>
       <c r="H231" t="inlineStr"/>
@@ -8335,21 +8333,21 @@
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>非線圈數位-雷射(雷達)</t>
+          <t>雷達數位</t>
         </is>
       </c>
       <c r="C232" t="inlineStr">
         <is>
-          <t>鼓山區蓬萊路32號前(輕軌沿線)</t>
+          <t>鼓山三路與青峰路口</t>
         </is>
       </c>
       <c r="D232" t="inlineStr">
         <is>
-          <t>南向北</t>
+          <t>北向南</t>
         </is>
       </c>
       <c r="E232" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="F232" t="inlineStr">
         <is>
@@ -8358,7 +8356,7 @@
       </c>
       <c r="G232" t="inlineStr">
         <is>
-          <t>闖紅燈</t>
+          <t>超速</t>
         </is>
       </c>
       <c r="H232" t="inlineStr"/>
@@ -8369,17 +8367,17 @@
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>雷達數位</t>
+          <t>非線圈數位-雷射(雷達)</t>
         </is>
       </c>
       <c r="C233" t="inlineStr">
         <is>
-          <t>鼓山區左營高架橋(中華陸橋)往南下橋處</t>
+          <t>鼓山區蓬萊路32號前(輕軌沿線)</t>
         </is>
       </c>
       <c r="D233" t="inlineStr">
         <is>
-          <t>北向南</t>
+          <t>南向北</t>
         </is>
       </c>
       <c r="E233" t="n">
@@ -8392,7 +8390,7 @@
       </c>
       <c r="G233" t="inlineStr">
         <is>
-          <t>超速</t>
+          <t>闖紅燈</t>
         </is>
       </c>
       <c r="H233" t="inlineStr"/>
@@ -8403,21 +8401,21 @@
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>非線圈數位-雷射(雷達)</t>
+          <t>雷達數位</t>
         </is>
       </c>
       <c r="C234" t="inlineStr">
         <is>
-          <t>鼓山區青海路與美術東二路口</t>
+          <t>鼓山區左營高架橋(中華陸橋)往南下橋處</t>
         </is>
       </c>
       <c r="D234" t="inlineStr">
         <is>
-          <t>東向西</t>
+          <t>北向南</t>
         </is>
       </c>
       <c r="E234" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="F234" t="inlineStr">
         <is>
@@ -8426,7 +8424,7 @@
       </c>
       <c r="G234" t="inlineStr">
         <is>
-          <t>闖紅燈</t>
+          <t>超速</t>
         </is>
       </c>
       <c r="H234" t="inlineStr"/>
@@ -8437,17 +8435,17 @@
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>雷達數位</t>
+          <t>非線圈數位-雷射(雷達)</t>
         </is>
       </c>
       <c r="C235" t="inlineStr">
         <is>
-          <t>旗山區台28線29.2公里處</t>
+          <t>鼓山區青海路與美術東二路口</t>
         </is>
       </c>
       <c r="D235" t="inlineStr">
         <is>
-          <t>西向東</t>
+          <t>東向西</t>
         </is>
       </c>
       <c r="E235" t="n">
@@ -8455,12 +8453,12 @@
       </c>
       <c r="F235" t="inlineStr">
         <is>
-          <t>旗山</t>
+          <t>鼓山</t>
         </is>
       </c>
       <c r="G235" t="inlineStr">
         <is>
-          <t>超速</t>
+          <t>闖紅燈</t>
         </is>
       </c>
       <c r="H235" t="inlineStr"/>
@@ -8471,21 +8469,21 @@
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>非線圈數位-雷射(雷達)</t>
+          <t>雷達數位</t>
         </is>
       </c>
       <c r="C236" t="inlineStr">
         <is>
-          <t>旗山區延平一路與旗甲路一段路口</t>
+          <t>旗山區台28線29.2公里處</t>
         </is>
       </c>
       <c r="D236" t="inlineStr">
         <is>
-          <t>北向南</t>
+          <t>西向東</t>
         </is>
       </c>
       <c r="E236" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="F236" t="inlineStr">
         <is>
@@ -8494,7 +8492,7 @@
       </c>
       <c r="G236" t="inlineStr">
         <is>
-          <t>闖紅燈</t>
+          <t>超速</t>
         </is>
       </c>
       <c r="H236" t="inlineStr"/>
@@ -8505,21 +8503,21 @@
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t>雷達數位</t>
+          <t>非線圈數位-雷射(雷達)</t>
         </is>
       </c>
       <c r="C237" t="inlineStr">
         <is>
-          <t>旗山區旗南三路8號以北50公尺處</t>
+          <t>旗山區延平一路與旗甲路一段路口</t>
         </is>
       </c>
       <c r="D237" t="inlineStr">
         <is>
-          <t>南北向</t>
+          <t>北向南</t>
         </is>
       </c>
       <c r="E237" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="F237" t="inlineStr">
         <is>
@@ -8528,7 +8526,7 @@
       </c>
       <c r="G237" t="inlineStr">
         <is>
-          <t>超速</t>
+          <t>闖紅燈</t>
         </is>
       </c>
       <c r="H237" t="inlineStr"/>
@@ -8539,17 +8537,17 @@
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>非線圈數位-雷射(雷達)</t>
+          <t>雷達數位</t>
         </is>
       </c>
       <c r="C238" t="inlineStr">
         <is>
-          <t>旗山區中華路與華中街口</t>
+          <t>旗山區旗南三路8號以北50公尺處</t>
         </is>
       </c>
       <c r="D238" t="inlineStr">
         <is>
-          <t>西向東</t>
+          <t>南北向</t>
         </is>
       </c>
       <c r="E238" t="n">
@@ -8562,7 +8560,7 @@
       </c>
       <c r="G238" t="inlineStr">
         <is>
-          <t>闖紅燈</t>
+          <t>超速</t>
         </is>
       </c>
       <c r="H238" t="inlineStr"/>
@@ -8573,21 +8571,21 @@
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>雷達數位</t>
+          <t>非線圈數位-雷射(雷達)</t>
         </is>
       </c>
       <c r="C239" t="inlineStr">
         <is>
-          <t>旗山區旗甲路一段(台29線62K)圓潭橋前</t>
+          <t>旗山區中華路與華中街口</t>
         </is>
       </c>
       <c r="D239" t="inlineStr">
         <is>
-          <t>北向南</t>
+          <t>西向東</t>
         </is>
       </c>
       <c r="E239" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="F239" t="inlineStr">
         <is>
@@ -8596,7 +8594,7 @@
       </c>
       <c r="G239" t="inlineStr">
         <is>
-          <t>超速</t>
+          <t>闖紅燈</t>
         </is>
       </c>
       <c r="H239" t="inlineStr"/>
@@ -8612,16 +8610,16 @@
       </c>
       <c r="C240" t="inlineStr">
         <is>
-          <t>旗山區台29線(旗南三路)75.3K處</t>
+          <t>旗山區旗甲路一段(台29線62K)圓潭橋前</t>
         </is>
       </c>
       <c r="D240" t="inlineStr">
         <is>
-          <t>南北向</t>
+          <t>北向南</t>
         </is>
       </c>
       <c r="E240" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="F240" t="inlineStr">
         <is>
@@ -8646,16 +8644,16 @@
       </c>
       <c r="C241" t="inlineStr">
         <is>
-          <t>旗山區台29線(旗甲路三段)58K+274</t>
+          <t>旗山區台29線(旗南三路)75.3K處</t>
         </is>
       </c>
       <c r="D241" t="inlineStr">
         <is>
-          <t>南向北</t>
+          <t>南北向</t>
         </is>
       </c>
       <c r="E241" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="F241" t="inlineStr">
         <is>
@@ -8680,16 +8678,16 @@
       </c>
       <c r="C242" t="inlineStr">
         <is>
-          <t>旗山區台3線(旗屏二路)與高92線口</t>
+          <t>旗山區台29線(旗甲路三段)58K+274</t>
         </is>
       </c>
       <c r="D242" t="inlineStr">
         <is>
-          <t>南北向</t>
+          <t>南向北</t>
         </is>
       </c>
       <c r="E242" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="F242" t="inlineStr">
         <is>
@@ -8709,21 +8707,21 @@
       </c>
       <c r="B243" t="inlineStr">
         <is>
-          <t>非線圈數位-雷射</t>
+          <t>雷達數位</t>
         </is>
       </c>
       <c r="C243" t="inlineStr">
         <is>
-          <t>旗山區中華路與延平一路口</t>
+          <t>旗山區台3線(旗屏二路)與高92線口</t>
         </is>
       </c>
       <c r="D243" t="inlineStr">
         <is>
-          <t>南向北</t>
+          <t>南北向</t>
         </is>
       </c>
       <c r="E243" t="n">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="F243" t="inlineStr">
         <is>
@@ -8732,7 +8730,7 @@
       </c>
       <c r="G243" t="inlineStr">
         <is>
-          <t>闖紅燈兼超速</t>
+          <t>超速</t>
         </is>
       </c>
       <c r="H243" t="inlineStr"/>
@@ -8743,12 +8741,12 @@
       </c>
       <c r="B244" t="inlineStr">
         <is>
-          <t>線圈數位</t>
+          <t>非線圈數位-雷射</t>
         </is>
       </c>
       <c r="C244" t="inlineStr">
         <is>
-          <t>鳳山區鳳頂路與田中央路口</t>
+          <t>旗山區中華路與延平一路口</t>
         </is>
       </c>
       <c r="D244" t="inlineStr">
@@ -8757,16 +8755,16 @@
         </is>
       </c>
       <c r="E244" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="F244" t="inlineStr">
         <is>
-          <t>鳳山</t>
+          <t>旗山</t>
         </is>
       </c>
       <c r="G244" t="inlineStr">
         <is>
-          <t>闖紅燈</t>
+          <t>闖紅燈兼超速</t>
         </is>
       </c>
       <c r="H244" t="inlineStr"/>
@@ -8782,7 +8780,7 @@
       </c>
       <c r="C245" t="inlineStr">
         <is>
-          <t>鳳山區國泰路二段與五甲一路口</t>
+          <t>旗山區延平一路與中華路口</t>
         </is>
       </c>
       <c r="D245" t="inlineStr">
@@ -8791,16 +8789,16 @@
         </is>
       </c>
       <c r="E245" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="F245" t="inlineStr">
         <is>
-          <t>鳳山</t>
+          <t>旗山</t>
         </is>
       </c>
       <c r="G245" t="inlineStr">
         <is>
-          <t>闖紅燈</t>
+          <t>闖紅燈兼超速</t>
         </is>
       </c>
       <c r="H245" t="inlineStr"/>
@@ -8816,12 +8814,12 @@
       </c>
       <c r="C246" t="inlineStr">
         <is>
-          <t>鳳山區建國路三段與青年路二段口</t>
+          <t>鳳山區鳳頂路與田中央路口</t>
         </is>
       </c>
       <c r="D246" t="inlineStr">
         <is>
-          <t>東向西</t>
+          <t>南向北</t>
         </is>
       </c>
       <c r="E246" t="n">
@@ -8845,21 +8843,21 @@
       </c>
       <c r="B247" t="inlineStr">
         <is>
-          <t>線圈數位</t>
+          <t>非線圈數位-雷射</t>
         </is>
       </c>
       <c r="C247" t="inlineStr">
         <is>
-          <t>鳳山區南華一路保安二街口</t>
+          <t>鳳山區國泰路二段與五甲一路口</t>
         </is>
       </c>
       <c r="D247" t="inlineStr">
         <is>
-          <t>東向西</t>
+          <t>北向南</t>
         </is>
       </c>
       <c r="E247" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="F247" t="inlineStr">
         <is>
@@ -8884,7 +8882,7 @@
       </c>
       <c r="C248" t="inlineStr">
         <is>
-          <t>鳳山區建國路三段與澄清路口</t>
+          <t>鳳山區建國路三段與青年路二段口</t>
         </is>
       </c>
       <c r="D248" t="inlineStr">
@@ -8893,7 +8891,7 @@
         </is>
       </c>
       <c r="E248" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="F248" t="inlineStr">
         <is>
@@ -8918,12 +8916,12 @@
       </c>
       <c r="C249" t="inlineStr">
         <is>
-          <t>鳳山區中山東路與光遠路口</t>
+          <t>鳳山區南華一路保安二街口</t>
         </is>
       </c>
       <c r="D249" t="inlineStr">
         <is>
-          <t>南向北</t>
+          <t>東向西</t>
         </is>
       </c>
       <c r="E249" t="n">
@@ -8947,21 +8945,21 @@
       </c>
       <c r="B250" t="inlineStr">
         <is>
-          <t>雷達數位</t>
+          <t>線圈數位</t>
         </is>
       </c>
       <c r="C250" t="inlineStr">
         <is>
-          <t>鳳山區鳳頂路(台糖加油站對面)</t>
+          <t>鳳山區建國路三段與澄清路口</t>
         </is>
       </c>
       <c r="D250" t="inlineStr">
         <is>
-          <t>北向南</t>
+          <t>東向西</t>
         </is>
       </c>
       <c r="E250" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="F250" t="inlineStr">
         <is>
@@ -8970,7 +8968,7 @@
       </c>
       <c r="G250" t="inlineStr">
         <is>
-          <t>超速</t>
+          <t>闖紅燈</t>
         </is>
       </c>
       <c r="H250" t="inlineStr"/>
@@ -8981,17 +8979,17 @@
       </c>
       <c r="B251" t="inlineStr">
         <is>
-          <t>非線圈數位-雷射</t>
+          <t>線圈數位</t>
         </is>
       </c>
       <c r="C251" t="inlineStr">
         <is>
-          <t>鳳山區國泰路一段與鳳頂路口</t>
+          <t>鳳山區中山東路與光遠路口</t>
         </is>
       </c>
       <c r="D251" t="inlineStr">
         <is>
-          <t>西向東</t>
+          <t>南向北</t>
         </is>
       </c>
       <c r="E251" t="n">
@@ -9015,17 +9013,17 @@
       </c>
       <c r="B252" t="inlineStr">
         <is>
-          <t>非線圈數位-雷射(雷達)</t>
+          <t>雷達數位</t>
         </is>
       </c>
       <c r="C252" t="inlineStr">
         <is>
-          <t>鳳山區南華一路與和成路</t>
+          <t>鳳山區鳳頂路(台糖加油站對面)</t>
         </is>
       </c>
       <c r="D252" t="inlineStr">
         <is>
-          <t>西向東</t>
+          <t>北向南</t>
         </is>
       </c>
       <c r="E252" t="n">
@@ -9038,7 +9036,7 @@
       </c>
       <c r="G252" t="inlineStr">
         <is>
-          <t>闖紅燈</t>
+          <t>超速</t>
         </is>
       </c>
       <c r="H252" t="inlineStr"/>
@@ -9049,21 +9047,21 @@
       </c>
       <c r="B253" t="inlineStr">
         <is>
-          <t>非線圈數位-雷射(雷達)</t>
+          <t>非線圈數位-雷射</t>
         </is>
       </c>
       <c r="C253" t="inlineStr">
         <is>
-          <t>鳳山區國泰路二段與南京路口</t>
+          <t>鳳山區國泰路一段與鳳頂路口</t>
         </is>
       </c>
       <c r="D253" t="inlineStr">
         <is>
-          <t>北向南</t>
+          <t>西向東</t>
         </is>
       </c>
       <c r="E253" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="F253" t="inlineStr">
         <is>
@@ -9072,7 +9070,7 @@
       </c>
       <c r="G253" t="inlineStr">
         <is>
-          <t>闖紅燈兼超速</t>
+          <t>闖紅燈</t>
         </is>
       </c>
       <c r="H253" t="inlineStr"/>
@@ -9088,12 +9086,12 @@
       </c>
       <c r="C254" t="inlineStr">
         <is>
-          <t>鳳山區鳳頂路與過埤路口</t>
+          <t>鳳山區南華一路與和成路</t>
         </is>
       </c>
       <c r="D254" t="inlineStr">
         <is>
-          <t>北向南</t>
+          <t>西向東</t>
         </is>
       </c>
       <c r="E254" t="n">
@@ -9106,7 +9104,7 @@
       </c>
       <c r="G254" t="inlineStr">
         <is>
-          <t>闖紅燈兼超速</t>
+          <t>闖紅燈</t>
         </is>
       </c>
       <c r="H254" t="inlineStr"/>
@@ -9122,18 +9120,16 @@
       </c>
       <c r="C255" t="inlineStr">
         <is>
-          <t>鳳山區臨海路與南華一路口</t>
+          <t>鳳山區國泰路二段與南京路口</t>
         </is>
       </c>
       <c r="D255" t="inlineStr">
         <is>
-          <t>南向北</t>
-        </is>
-      </c>
-      <c r="E255" t="inlineStr">
-        <is>
-          <t>50/40</t>
-        </is>
+          <t>北向南</t>
+        </is>
+      </c>
+      <c r="E255" t="n">
+        <v>60</v>
       </c>
       <c r="F255" t="inlineStr">
         <is>
@@ -9142,7 +9138,7 @@
       </c>
       <c r="G255" t="inlineStr">
         <is>
-          <t>闖紅燈</t>
+          <t>闖紅燈兼超速</t>
         </is>
       </c>
       <c r="H255" t="inlineStr"/>
@@ -9153,17 +9149,17 @@
       </c>
       <c r="B256" t="inlineStr">
         <is>
-          <t>非線圈數位-雷射</t>
+          <t>非線圈數位-雷射(雷達)</t>
         </is>
       </c>
       <c r="C256" t="inlineStr">
         <is>
-          <t>鳳山區過埤路與鳳頂路口(快車道)</t>
+          <t>鳳山區鳳頂路與過埤路口</t>
         </is>
       </c>
       <c r="D256" t="inlineStr">
         <is>
-          <t>東向西</t>
+          <t>北向南</t>
         </is>
       </c>
       <c r="E256" t="n">
@@ -9176,7 +9172,7 @@
       </c>
       <c r="G256" t="inlineStr">
         <is>
-          <t>闖紅燈兼路口科技執法監測</t>
+          <t>闖紅燈兼超速</t>
         </is>
       </c>
       <c r="H256" t="inlineStr"/>
@@ -9187,21 +9183,23 @@
       </c>
       <c r="B257" t="inlineStr">
         <is>
-          <t>雷達數位</t>
+          <t>非線圈數位-雷射(雷達)</t>
         </is>
       </c>
       <c r="C257" t="inlineStr">
         <is>
-          <t>鳳山區南華一路與鳳甲路口</t>
+          <t>鳳山區臨海路與南華一路口</t>
         </is>
       </c>
       <c r="D257" t="inlineStr">
         <is>
-          <t>東向西</t>
-        </is>
-      </c>
-      <c r="E257" t="n">
-        <v>50</v>
+          <t>南向北</t>
+        </is>
+      </c>
+      <c r="E257" t="inlineStr">
+        <is>
+          <t>50/40</t>
+        </is>
       </c>
       <c r="F257" t="inlineStr">
         <is>
@@ -9210,7 +9208,7 @@
       </c>
       <c r="G257" t="inlineStr">
         <is>
-          <t>超速</t>
+          <t>闖紅燈</t>
         </is>
       </c>
       <c r="H257" t="inlineStr"/>
@@ -9226,16 +9224,16 @@
       </c>
       <c r="C258" t="inlineStr">
         <is>
-          <t>鳳山區保南二路與保義街口</t>
+          <t>鳳山區過埤路與鳳頂路口(快車道)</t>
         </is>
       </c>
       <c r="D258" t="inlineStr">
         <is>
-          <t>南向北</t>
+          <t>東向西</t>
         </is>
       </c>
       <c r="E258" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="F258" t="inlineStr">
         <is>
@@ -9244,7 +9242,7 @@
       </c>
       <c r="G258" t="inlineStr">
         <is>
-          <t>闖紅燈</t>
+          <t>闖紅燈兼路口科技執法監測</t>
         </is>
       </c>
       <c r="H258" t="inlineStr"/>
@@ -9260,16 +9258,16 @@
       </c>
       <c r="C259" t="inlineStr">
         <is>
-          <t>鳳山區三商街高速公路口機慢車專用道往南415公尺處</t>
+          <t>鳳山區南華一路與鳳甲路口</t>
         </is>
       </c>
       <c r="D259" t="inlineStr">
         <is>
-          <t>北向南</t>
+          <t>東向西</t>
         </is>
       </c>
       <c r="E259" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="F259" t="inlineStr">
         <is>
@@ -9294,16 +9292,16 @@
       </c>
       <c r="C260" t="inlineStr">
         <is>
-          <t>鳳山區五甲一路與瑞隆東路口</t>
+          <t>鳳山區保南二路與保義街口</t>
         </is>
       </c>
       <c r="D260" t="inlineStr">
         <is>
-          <t>北向南</t>
+          <t>南向北</t>
         </is>
       </c>
       <c r="E260" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="F260" t="inlineStr">
         <is>
@@ -9323,12 +9321,12 @@
       </c>
       <c r="B261" t="inlineStr">
         <is>
-          <t>線圈數位</t>
+          <t>雷達數位</t>
         </is>
       </c>
       <c r="C261" t="inlineStr">
         <is>
-          <t>橋頭區成功南路仕隆路口</t>
+          <t>鳳山區三商街高速公路口機慢車專用道往南415公尺處</t>
         </is>
       </c>
       <c r="D261" t="inlineStr">
@@ -9337,16 +9335,16 @@
         </is>
       </c>
       <c r="E261" t="n">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="F261" t="inlineStr">
         <is>
-          <t>橋頭</t>
+          <t>鳳山</t>
         </is>
       </c>
       <c r="G261" t="inlineStr">
         <is>
-          <t>闖紅燈</t>
+          <t>超速</t>
         </is>
       </c>
       <c r="H261" t="inlineStr"/>
@@ -9357,17 +9355,17 @@
       </c>
       <c r="B262" t="inlineStr">
         <is>
-          <t>雷達數位</t>
+          <t>非線圈數位-雷射</t>
         </is>
       </c>
       <c r="C262" t="inlineStr">
         <is>
-          <t>橋頭區白樹路175號對面</t>
+          <t>鳳山區五甲一路與瑞隆東路口</t>
         </is>
       </c>
       <c r="D262" t="inlineStr">
         <is>
-          <t>西向東</t>
+          <t>北向南</t>
         </is>
       </c>
       <c r="E262" t="n">
@@ -9375,12 +9373,12 @@
       </c>
       <c r="F262" t="inlineStr">
         <is>
-          <t>橋頭</t>
+          <t>鳳山</t>
         </is>
       </c>
       <c r="G262" t="inlineStr">
         <is>
-          <t>超速</t>
+          <t>闖紅燈</t>
         </is>
       </c>
       <c r="H262" t="inlineStr"/>
@@ -9391,12 +9389,12 @@
       </c>
       <c r="B263" t="inlineStr">
         <is>
-          <t>非線圈數位-雷射(雷達)</t>
+          <t>線圈數位</t>
         </is>
       </c>
       <c r="C263" t="inlineStr">
         <is>
-          <t>橋頭區成功北路與新興路</t>
+          <t>橋頭區成功南路仕隆路口</t>
         </is>
       </c>
       <c r="D263" t="inlineStr">
@@ -9425,21 +9423,21 @@
       </c>
       <c r="B264" t="inlineStr">
         <is>
-          <t>非線圈數位-雷射(雷達)</t>
+          <t>雷達數位</t>
         </is>
       </c>
       <c r="C264" t="inlineStr">
         <is>
-          <t>橋頭區成功北路與鐵道北路</t>
+          <t>橋頭區白樹路175號對面</t>
         </is>
       </c>
       <c r="D264" t="inlineStr">
         <is>
-          <t>北向南</t>
+          <t>西向東</t>
         </is>
       </c>
       <c r="E264" t="n">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="F264" t="inlineStr">
         <is>
@@ -9448,7 +9446,7 @@
       </c>
       <c r="G264" t="inlineStr">
         <is>
-          <t>闖紅燈</t>
+          <t>超速</t>
         </is>
       </c>
       <c r="H264" t="inlineStr"/>
@@ -9459,12 +9457,12 @@
       </c>
       <c r="B265" t="inlineStr">
         <is>
-          <t>雷達數位</t>
+          <t>非線圈數位-雷射(雷達)</t>
         </is>
       </c>
       <c r="C265" t="inlineStr">
         <is>
-          <t>橋頭區成功南路與經武路口</t>
+          <t>橋頭區成功北路與新興路</t>
         </is>
       </c>
       <c r="D265" t="inlineStr">
@@ -9482,7 +9480,7 @@
       </c>
       <c r="G265" t="inlineStr">
         <is>
-          <t>超速</t>
+          <t>闖紅燈</t>
         </is>
       </c>
       <c r="H265" t="inlineStr"/>
@@ -9498,20 +9496,20 @@
       </c>
       <c r="C266" t="inlineStr">
         <is>
-          <t>燕巢區旗楠路段(鳳旗路44號之10旁)</t>
+          <t>橋頭區成功南路與經武路口</t>
         </is>
       </c>
       <c r="D266" t="inlineStr">
         <is>
-          <t>東向西</t>
+          <t>北向南</t>
         </is>
       </c>
       <c r="E266" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="F266" t="inlineStr">
         <is>
-          <t>燕巢</t>
+          <t>橋頭</t>
         </is>
       </c>
       <c r="G266" t="inlineStr">
@@ -9527,21 +9525,21 @@
       </c>
       <c r="B267" t="inlineStr">
         <is>
-          <t>線圈數位</t>
+          <t>雷達數位</t>
         </is>
       </c>
       <c r="C267" t="inlineStr">
         <is>
-          <t>中興路與南一巷口(燕巢國中前)</t>
+          <t>燕巢區旗楠路段(鳳旗路44號之10旁)</t>
         </is>
       </c>
       <c r="D267" t="inlineStr">
         <is>
-          <t>北向南</t>
+          <t>東向西</t>
         </is>
       </c>
       <c r="E267" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="F267" t="inlineStr">
         <is>
@@ -9550,7 +9548,7 @@
       </c>
       <c r="G267" t="inlineStr">
         <is>
-          <t>闖紅燈</t>
+          <t>超速</t>
         </is>
       </c>
       <c r="H267" t="inlineStr"/>
@@ -9561,21 +9559,21 @@
       </c>
       <c r="B268" t="inlineStr">
         <is>
-          <t>非線圈數位-雷射</t>
+          <t>線圈數位</t>
         </is>
       </c>
       <c r="C268" t="inlineStr">
         <is>
-          <t>燕巢區台22線深水國小前路口</t>
+          <t>中興路與南一巷口(燕巢國中前)</t>
         </is>
       </c>
       <c r="D268" t="inlineStr">
         <is>
-          <t>東向西</t>
+          <t>北向南</t>
         </is>
       </c>
       <c r="E268" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="F268" t="inlineStr">
         <is>
@@ -9595,21 +9593,21 @@
       </c>
       <c r="B269" t="inlineStr">
         <is>
-          <t>雷達數位</t>
+          <t>非線圈數位-雷射</t>
         </is>
       </c>
       <c r="C269" t="inlineStr">
         <is>
-          <t>燕巢區鳳澄路7之32號前</t>
+          <t>燕巢區台22線深水國小前路口</t>
         </is>
       </c>
       <c r="D269" t="inlineStr">
         <is>
-          <t>北向南</t>
+          <t>東向西</t>
         </is>
       </c>
       <c r="E269" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="F269" t="inlineStr">
         <is>
@@ -9618,7 +9616,7 @@
       </c>
       <c r="G269" t="inlineStr">
         <is>
-          <t>超速</t>
+          <t>闖紅燈</t>
         </is>
       </c>
       <c r="H269" t="inlineStr"/>
@@ -9629,17 +9627,17 @@
       </c>
       <c r="B270" t="inlineStr">
         <is>
-          <t>非線圈數位-雷射(雷達)</t>
+          <t>雷達數位</t>
         </is>
       </c>
       <c r="C270" t="inlineStr">
         <is>
-          <t>燕巢區深中路（台22線）國立高雄科學大學燕巢校區前</t>
+          <t>燕巢區鳳澄路7之32號前</t>
         </is>
       </c>
       <c r="D270" t="inlineStr">
         <is>
-          <t>西向東</t>
+          <t>北向南</t>
         </is>
       </c>
       <c r="E270" t="n">
@@ -9652,10 +9650,78 @@
       </c>
       <c r="G270" t="inlineStr">
         <is>
+          <t>超速</t>
+        </is>
+      </c>
+      <c r="H270" t="inlineStr"/>
+    </row>
+    <row r="271">
+      <c r="A271" t="n">
+        <v>270</v>
+      </c>
+      <c r="B271" t="inlineStr">
+        <is>
+          <t>非線圈數位-雷射(雷達)</t>
+        </is>
+      </c>
+      <c r="C271" t="inlineStr">
+        <is>
+          <t>燕巢區深中路（台22線）國立高雄科學大學燕巢校區前</t>
+        </is>
+      </c>
+      <c r="D271" t="inlineStr">
+        <is>
+          <t>西向東</t>
+        </is>
+      </c>
+      <c r="E271" t="n">
+        <v>50</v>
+      </c>
+      <c r="F271" t="inlineStr">
+        <is>
+          <t>燕巢</t>
+        </is>
+      </c>
+      <c r="G271" t="inlineStr">
+        <is>
           <t>闖紅燈兼超速</t>
         </is>
       </c>
-      <c r="H270" t="inlineStr"/>
+      <c r="H271" t="inlineStr"/>
+    </row>
+    <row r="272">
+      <c r="A272" t="n">
+        <v>271</v>
+      </c>
+      <c r="B272" t="inlineStr">
+        <is>
+          <t>雷達數位</t>
+        </is>
+      </c>
+      <c r="C272" t="inlineStr">
+        <is>
+          <t>彌陀區中正東路91號前</t>
+        </is>
+      </c>
+      <c r="D272" t="inlineStr">
+        <is>
+          <t>北向南</t>
+        </is>
+      </c>
+      <c r="E272" t="n">
+        <v>70</v>
+      </c>
+      <c r="F272" t="inlineStr">
+        <is>
+          <t>彌陀</t>
+        </is>
+      </c>
+      <c r="G272" t="inlineStr">
+        <is>
+          <t>超速</t>
+        </is>
+      </c>
+      <c r="H272" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -9899,7 +9965,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G78"/>
+  <dimension ref="A1:G79"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -12330,6 +12396,37 @@
         </is>
       </c>
       <c r="G78" t="inlineStr"/>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>61</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>橋頭區成功北路與鐵道北路</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>路口各項違規(闖紅燈、超速、不依標誌標線號誌行駛等)</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>北向南</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>22.767154</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>120.305743</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -16426,7 +16523,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>苓雅區大順三路與中正一路口</t>
+          <t>苓雅區河南路與中正一路口</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -16436,14 +16533,14 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>違規左轉</t>
+          <t>違規左轉等各項違規</t>
         </is>
       </c>
       <c r="E17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
@@ -16457,14 +16554,14 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>闖紅燈</t>
+          <t>闖紅燈等各項違規</t>
         </is>
       </c>
       <c r="E18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
@@ -16485,7 +16582,7 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
@@ -16506,7 +16603,7 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
@@ -16527,7 +16624,7 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
@@ -16548,7 +16645,7 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
@@ -16569,7 +16666,7 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
@@ -16590,7 +16687,7 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
@@ -16611,7 +16708,7 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
@@ -16632,7 +16729,7 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
@@ -16653,7 +16750,7 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
@@ -16674,7 +16771,7 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
@@ -16695,7 +16792,7 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
@@ -16716,7 +16813,7 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
@@ -16737,7 +16834,7 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
@@ -16758,7 +16855,7 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
@@ -16779,7 +16876,7 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
@@ -16800,7 +16897,7 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
@@ -16821,7 +16918,7 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
@@ -16842,7 +16939,7 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
@@ -16863,7 +16960,7 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
@@ -16884,7 +16981,7 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
@@ -16905,7 +17002,7 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
@@ -16926,7 +17023,7 @@
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
@@ -16947,7 +17044,7 @@
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
@@ -16968,7 +17065,7 @@
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
@@ -16989,7 +17086,7 @@
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
@@ -17010,7 +17107,7 @@
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
@@ -17031,7 +17128,7 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
@@ -17052,7 +17149,7 @@
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
@@ -17073,7 +17170,7 @@
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
@@ -17094,7 +17191,7 @@
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
@@ -17115,7 +17212,7 @@
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
@@ -17136,7 +17233,7 @@
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
@@ -17157,7 +17254,7 @@
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B52" t="inlineStr">
         <is>
@@ -17178,7 +17275,7 @@
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B53" t="inlineStr">
         <is>
@@ -17199,7 +17296,7 @@
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B54" t="inlineStr">
         <is>
@@ -17220,7 +17317,7 @@
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B55" t="inlineStr">
         <is>
@@ -17241,7 +17338,7 @@
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B56" t="inlineStr">
         <is>
@@ -17262,7 +17359,7 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B57" t="inlineStr">
         <is>
@@ -17283,7 +17380,7 @@
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B58" t="inlineStr">
         <is>
@@ -17304,7 +17401,7 @@
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B59" t="inlineStr">
         <is>
@@ -17325,7 +17422,7 @@
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B60" t="inlineStr">
         <is>
@@ -17346,7 +17443,7 @@
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B61" t="inlineStr">
         <is>
@@ -17367,7 +17464,7 @@
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B62" t="inlineStr">
         <is>
@@ -17388,7 +17485,7 @@
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B63" t="inlineStr">
         <is>
@@ -17409,7 +17506,7 @@
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B64" t="inlineStr">
         <is>
@@ -17430,7 +17527,7 @@
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B65" t="inlineStr">
         <is>
@@ -17451,7 +17548,7 @@
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B66" t="inlineStr">
         <is>
@@ -17472,7 +17569,7 @@
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B67" t="inlineStr">
         <is>
@@ -17493,7 +17590,7 @@
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B68" t="inlineStr">
         <is>
@@ -17514,7 +17611,7 @@
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B69" t="inlineStr">
         <is>
@@ -17535,7 +17632,7 @@
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B70" t="inlineStr">
         <is>
@@ -17556,7 +17653,7 @@
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B71" t="inlineStr">
         <is>
@@ -17577,7 +17674,7 @@
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B72" t="inlineStr">
         <is>
@@ -17598,7 +17695,7 @@
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B73" t="inlineStr">
         <is>
@@ -17619,7 +17716,7 @@
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B74" t="inlineStr">
         <is>
@@ -17640,7 +17737,7 @@
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B75" t="inlineStr">
         <is>
@@ -17661,7 +17758,7 @@
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B76" t="inlineStr">
         <is>
@@ -17682,7 +17779,7 @@
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B77" t="inlineStr">
         <is>
@@ -17703,7 +17800,7 @@
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B78" t="inlineStr">
         <is>
@@ -17724,7 +17821,7 @@
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B79" t="inlineStr">
         <is>
